--- a/ONON.xlsx
+++ b/ONON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FED058-E3EF-4C20-AB00-E7C166DC94D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD1B488-AC20-49B0-A7F6-9E039CCD2C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="390" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{3D17FBD5-4686-4900-BBF2-80842DD395C0}"/>
+    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{3D17FBD5-4686-4900-BBF2-80842DD395C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="312">
   <si>
     <t>On Holding</t>
   </si>
@@ -487,9 +487,6 @@
     <t>CFO</t>
   </si>
   <si>
-    <t>Martin Hoffman</t>
-  </si>
-  <si>
     <t>FY19</t>
   </si>
   <si>
@@ -1016,6 +1013,27 @@
   </si>
   <si>
     <t>=EV/Revenue</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Martin Hoffman (former CFO)</t>
+  </si>
+  <si>
+    <t>Marc Maurer former CEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Hoffman </t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1386,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1499,6 +1517,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="170" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1969,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B32094A-E139-463C-B9BC-05F4A65CAFD9}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +2018,7 @@
         <v>19</v>
       </c>
       <c r="H2">
-        <v>36.549999999999997</v>
+        <v>54.01</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2005,10 +2027,10 @@
       </c>
       <c r="H3" s="5">
         <f>+H2*H10</f>
-        <v>31.067499999999995</v>
+        <v>45.908499999999997</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -2020,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="5">
-        <v>289.29634299999998</v>
+        <v>293.33796000000001</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -2033,10 +2055,10 @@
       </c>
       <c r="H5" s="5">
         <f>+H3*H4</f>
-        <v>8987.7141361524973</v>
+        <v>13466.70573666</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2044,10 +2066,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="5">
-        <v>924.3</v>
+        <v>871.8</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2061,8 +2083,8 @@
         <v>6</v>
       </c>
       <c r="H7" s="5">
-        <f>51.3+1.7</f>
-        <v>53</v>
+        <f>0.8+53.2</f>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2077,7 +2099,7 @@
       </c>
       <c r="H8" s="5">
         <f>+H5-H6+H7</f>
-        <v>8116.4141361524971</v>
+        <v>12648.905736660001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2125,6 +2147,12 @@
       <c r="G14" t="s">
         <v>127</v>
       </c>
+      <c r="H14" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -2134,7 +2162,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>129</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2163,13 +2191,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7A9B0E-FCCA-49E4-9A23-D8042125AB6F}">
-  <dimension ref="A1:AO97"/>
+  <dimension ref="A1:AS97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K22" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q36" sqref="Q36"/>
+      <selection pane="bottomRight" activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,12 +2206,12 @@
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2208,26 +2236,38 @@
       <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="L2" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -2241,7 +2281,7 @@
         <v>144</v>
       </c>
       <c r="F3" s="5">
-        <f>+P3-SUM(C3:E3)</f>
+        <f>+T3-SUM(C3:E3)</f>
         <v>112.19999999999999</v>
       </c>
       <c r="G3" s="5">
@@ -2254,35 +2294,37 @@
         <v>165.8</v>
       </c>
       <c r="J3" s="5">
-        <f>+Q3-SUM(G3:I3)</f>
+        <f>+U3-SUM(G3:I3)</f>
         <v>147.39999999999992</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5">
+      <c r="K3" s="5">
+        <v>168.6</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
         <f>128.344+9.148</f>
         <v>137.49199999999999</v>
       </c>
-      <c r="M3" s="5">
+      <c r="Q3" s="5">
         <f>187.51+6.697</f>
         <v>194.20699999999999</v>
       </c>
-      <c r="N3" s="5">
+      <c r="R3" s="5">
         <f>260.4+12</f>
         <v>272.39999999999998</v>
       </c>
-      <c r="O3" s="5">
+      <c r="S3" s="5">
         <v>378.1</v>
       </c>
-      <c r="P3" s="5">
+      <c r="T3" s="5">
         <v>488.7</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="U3" s="5">
         <v>577.79999999999995</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
@@ -2303,8 +2345,12 @@
       <c r="AM3" s="5"/>
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>65</v>
       </c>
@@ -2318,7 +2364,7 @@
         <v>294.89999999999998</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F20" si="0">+P4-SUM(C4:E4)</f>
+        <f t="shared" ref="F4:F20" si="0">+T4-SUM(C4:E4)</f>
         <v>300.50000000000011</v>
       </c>
       <c r="G4" s="5">
@@ -2331,32 +2377,34 @@
         <v>395.5</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J21" si="1">+Q4-SUM(G4:I4)</f>
+        <f t="shared" ref="J4:J21" si="1">+U4-SUM(G4:I4)</f>
         <v>385.20000000000005</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5">
+      <c r="K4" s="5">
+        <v>437.4</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5">
         <v>111.761</v>
       </c>
-      <c r="M4" s="5">
+      <c r="Q4" s="5">
         <v>208.089</v>
       </c>
-      <c r="N4" s="5">
+      <c r="R4" s="5">
         <v>409.5</v>
       </c>
-      <c r="O4" s="5">
+      <c r="S4" s="5">
         <v>763.8</v>
       </c>
-      <c r="P4" s="5">
+      <c r="T4" s="5">
         <v>1162.2</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="U4" s="5">
         <v>1480.3</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
@@ -2377,8 +2425,12 @@
       <c r="AM4" s="5"/>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -2408,30 +2460,32 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5">
+      <c r="K5" s="5">
+        <v>120.6</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5">
         <v>17.867000000000001</v>
       </c>
-      <c r="M5" s="5">
+      <c r="Q5" s="5">
         <v>22.998999999999999</v>
       </c>
-      <c r="N5" s="5">
+      <c r="R5" s="5">
         <f>42.7</f>
         <v>42.7</v>
       </c>
-      <c r="O5" s="5">
+      <c r="S5" s="5">
         <v>80.2</v>
       </c>
-      <c r="P5" s="5">
+      <c r="T5" s="5">
         <v>141.1</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="U5" s="5">
         <v>260.2</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
@@ -2452,8 +2506,12 @@
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -2483,29 +2541,31 @@
         <f t="shared" si="1"/>
         <v>568.69999999999982</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5">
+      <c r="K6" s="5">
+        <v>680.9</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
         <v>255.61199999999999</v>
       </c>
-      <c r="M6" s="5">
+      <c r="Q6" s="5">
         <v>406.39</v>
       </c>
-      <c r="N6" s="5">
+      <c r="R6" s="5">
         <v>683.3</v>
       </c>
-      <c r="O6" s="5">
+      <c r="S6" s="5">
         <v>1167.5</v>
       </c>
-      <c r="P6" s="5">
+      <c r="T6" s="5">
         <v>1711.4</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="U6" s="5">
         <v>2199.6</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
@@ -2526,8 +2586,12 @@
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -2557,29 +2621,31 @@
         <f t="shared" si="1"/>
         <v>32.600000000000009</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5">
+      <c r="K7" s="5">
+        <v>38.1</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5">
         <v>9.57</v>
       </c>
-      <c r="M7" s="5">
+      <c r="Q7" s="5">
         <v>15.75</v>
       </c>
-      <c r="N7" s="5">
+      <c r="R7" s="5">
         <v>36.299999999999997</v>
       </c>
-      <c r="O7" s="5">
+      <c r="S7" s="5">
         <v>47.3</v>
       </c>
-      <c r="P7" s="5">
+      <c r="T7" s="5">
         <v>68.900000000000006</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="U7" s="5">
         <v>101</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
@@ -2600,8 +2666,12 @@
       <c r="AM7" s="5"/>
       <c r="AN7" s="5"/>
       <c r="AO7" s="5"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -2631,29 +2701,31 @@
         <f t="shared" si="1"/>
         <v>5.3000000000000007</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5">
+      <c r="K8" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5">
         <v>1.9379999999999999</v>
       </c>
-      <c r="M8" s="5">
+      <c r="Q8" s="5">
         <v>3.1549999999999998</v>
       </c>
-      <c r="N8" s="5">
+      <c r="R8" s="5">
         <v>5</v>
       </c>
-      <c r="O8" s="5">
+      <c r="S8" s="5">
         <v>7.4</v>
       </c>
-      <c r="P8" s="5">
+      <c r="T8" s="5">
         <v>11.8</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="U8" s="5">
         <v>17.7</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
@@ -2674,8 +2746,12 @@
       <c r="AM8" s="5"/>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -2705,29 +2781,31 @@
         <f t="shared" si="1"/>
         <v>310.5</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5">
+      <c r="K9" s="5">
+        <v>449.7</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5">
         <v>200.71600000000001</v>
       </c>
-      <c r="M9" s="5">
+      <c r="Q9" s="5">
         <v>264.81900000000002</v>
       </c>
-      <c r="N9" s="5">
+      <c r="R9" s="5">
         <v>448.8</v>
       </c>
-      <c r="O9" s="5">
+      <c r="S9" s="5">
         <v>777</v>
       </c>
-      <c r="P9" s="5">
+      <c r="T9" s="5">
         <v>1120.3</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="U9" s="5">
         <v>1375.5</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
@@ -2748,8 +2826,12 @@
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -2779,29 +2861,31 @@
         <f t="shared" si="1"/>
         <v>296.20000000000005</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
+      <c r="K10" s="5">
+        <v>276.89999999999998</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5">
         <v>66.403999999999996</v>
       </c>
-      <c r="M10" s="5">
+      <c r="Q10" s="5">
         <v>160.476</v>
       </c>
-      <c r="N10" s="5">
+      <c r="R10" s="5">
         <v>275.8</v>
       </c>
-      <c r="O10" s="5">
+      <c r="S10" s="5">
         <v>445.1</v>
       </c>
-      <c r="P10" s="5">
+      <c r="T10" s="5">
         <v>671.8</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="U10" s="5">
         <v>942.8</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
@@ -2818,8 +2902,12 @@
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
@@ -2849,29 +2937,31 @@
         <f t="shared" si="1"/>
         <v>606.60000000000014</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="7">
+      <c r="K11" s="7">
+        <v>726.6</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="7">
         <v>267.12</v>
       </c>
-      <c r="M11" s="7">
+      <c r="Q11" s="7">
         <v>425.29</v>
       </c>
-      <c r="N11" s="7">
+      <c r="R11" s="7">
         <v>724.6</v>
       </c>
-      <c r="O11" s="7">
+      <c r="S11" s="7">
         <v>1222.0999999999999</v>
       </c>
-      <c r="P11" s="7">
+      <c r="T11" s="7">
         <v>1792.1</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="U11" s="7">
         <v>2318.3000000000002</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
@@ -2888,8 +2978,12 @@
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -2919,29 +3013,31 @@
         <f t="shared" si="1"/>
         <v>229.80000000000007</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5">
+      <c r="K12" s="5">
+        <v>291.3</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5">
         <v>124.003</v>
       </c>
-      <c r="M12" s="5">
+      <c r="Q12" s="5">
         <v>194.19</v>
       </c>
-      <c r="N12" s="5">
+      <c r="R12" s="5">
         <v>294.3</v>
       </c>
-      <c r="O12" s="5">
+      <c r="S12" s="5">
         <v>537.20000000000005</v>
       </c>
-      <c r="P12" s="5">
+      <c r="T12" s="5">
         <v>724.8</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="U12" s="5">
         <v>912.6</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -2958,8 +3054,12 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -2992,38 +3092,41 @@
         <v>385.29999999999995</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" ref="J13" si="3">+J11-J12</f>
+        <f t="shared" ref="J13:K13" si="3">+J11-J12</f>
         <v>376.80000000000007</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5">
-        <f t="shared" ref="L13:P13" si="4">+L11-L12</f>
+      <c r="K13" s="5">
+        <f t="shared" si="3"/>
+        <v>435.3</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5">
+        <f t="shared" ref="P13:T13" si="4">+P11-P12</f>
         <v>143.11700000000002</v>
       </c>
-      <c r="M13" s="5">
+      <c r="Q13" s="5">
         <f t="shared" si="4"/>
         <v>231.10000000000002</v>
       </c>
-      <c r="N13" s="5">
+      <c r="R13" s="5">
         <f t="shared" si="4"/>
         <v>430.3</v>
       </c>
-      <c r="O13" s="5">
+      <c r="S13" s="5">
         <f t="shared" si="4"/>
         <v>684.89999999999986</v>
       </c>
-      <c r="P13" s="5">
+      <c r="T13" s="5">
         <f t="shared" si="4"/>
         <v>1067.3</v>
       </c>
-      <c r="Q13" s="5">
-        <f>+Q11-Q12</f>
+      <c r="U13" s="5">
+        <f>+U11-U12</f>
         <v>1405.7000000000003</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
@@ -3040,8 +3143,12 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -3071,29 +3178,31 @@
         <f t="shared" si="1"/>
         <v>323.79999999999995</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
+      <c r="K14" s="5">
+        <v>358.2</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5">
         <v>137.428</v>
       </c>
-      <c r="M14" s="5">
+      <c r="Q14" s="5">
         <v>248.19900000000001</v>
       </c>
-      <c r="N14" s="5">
+      <c r="R14" s="5">
         <v>571.4</v>
       </c>
-      <c r="O14" s="5">
+      <c r="S14" s="5">
         <v>599.79999999999995</v>
       </c>
-      <c r="P14" s="5">
+      <c r="T14" s="5">
         <v>887</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="U14" s="5">
         <v>1194.2</v>
       </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
@@ -3110,8 +3219,12 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -3144,38 +3257,41 @@
         <v>72.599999999999966</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" ref="J15" si="6">+J13-J14</f>
+        <f t="shared" ref="J15:K15" si="6">+J13-J14</f>
         <v>53.000000000000114</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5">
-        <f t="shared" ref="L15:N15" si="7">+L13-L14</f>
+      <c r="K15" s="5">
+        <f t="shared" si="6"/>
+        <v>77.100000000000023</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
+        <f t="shared" ref="P15:R15" si="7">+P13-P14</f>
         <v>5.6890000000000214</v>
       </c>
-      <c r="M15" s="5">
+      <c r="Q15" s="5">
         <f t="shared" si="7"/>
         <v>-17.09899999999999</v>
       </c>
-      <c r="N15" s="5">
+      <c r="R15" s="5">
         <f t="shared" si="7"/>
         <v>-141.09999999999997</v>
       </c>
-      <c r="O15" s="5">
-        <f>+O13-O14</f>
+      <c r="S15" s="5">
+        <f>+S13-S14</f>
         <v>85.099999999999909</v>
       </c>
-      <c r="P15" s="5">
-        <f>+P13-P14</f>
+      <c r="T15" s="5">
+        <f>+T13-T14</f>
         <v>180.29999999999995</v>
       </c>
-      <c r="Q15" s="5">
-        <f>+Q13-Q14</f>
+      <c r="U15" s="5">
+        <f>+U13-U14</f>
         <v>211.50000000000023</v>
       </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
@@ -3192,8 +3308,12 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -3223,29 +3343,31 @@
         <f t="shared" si="1"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5">
+      <c r="K16" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="Q16" s="5">
         <v>2.7E-2</v>
       </c>
-      <c r="N16" s="5">
+      <c r="R16" s="5">
         <v>0</v>
       </c>
-      <c r="O16" s="5">
+      <c r="S16" s="5">
         <v>5.7</v>
       </c>
-      <c r="P16" s="5">
+      <c r="T16" s="5">
         <v>11.5</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="U16" s="5">
         <v>23.5</v>
       </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
@@ -3262,8 +3384,12 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
-    </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+    </row>
+    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -3293,29 +3419,31 @@
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5">
+      <c r="K17" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5">
         <v>0.69699999999999995</v>
       </c>
-      <c r="M17" s="5">
+      <c r="Q17" s="5">
         <v>0.93</v>
       </c>
-      <c r="N17" s="5">
+      <c r="R17" s="5">
         <v>3.6</v>
       </c>
-      <c r="O17" s="5">
+      <c r="S17" s="5">
         <v>6.4</v>
       </c>
-      <c r="P17" s="5">
+      <c r="T17" s="5">
         <v>11.3</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="U17" s="5">
         <v>23.1</v>
       </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
@@ -3332,8 +3460,12 @@
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+    </row>
+    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -3363,29 +3495,31 @@
         <f t="shared" si="1"/>
         <v>97.4</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
+      <c r="K18" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5">
         <v>-1.893</v>
       </c>
-      <c r="M18" s="5">
+      <c r="Q18" s="5">
         <v>-6.4340000000000002</v>
       </c>
-      <c r="N18" s="5">
+      <c r="R18" s="5">
         <v>-14.9</v>
       </c>
-      <c r="O18" s="5">
+      <c r="S18" s="5">
         <v>-6.5</v>
       </c>
-      <c r="P18" s="5">
+      <c r="T18" s="5">
         <v>-111.4</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="U18" s="5">
         <v>67.7</v>
       </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
@@ -3402,8 +3536,12 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+    </row>
+    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>35</v>
       </c>
@@ -3436,38 +3574,41 @@
         <v>29.499999999999964</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ref="J19" si="9">+J15+J16-J17-J18</f>
+        <f t="shared" ref="J19:K19" si="9">+J15+J16-J17-J18</f>
         <v>-43.899999999999892</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5">
-        <f t="shared" ref="L19:O19" si="10">+L15+L16-L17+L18</f>
+      <c r="K19" s="5">
+        <f t="shared" si="9"/>
+        <v>64.000000000000014</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5">
+        <f t="shared" ref="P19:S19" si="10">+P15+P16-P17+P18</f>
         <v>3.1460000000000212</v>
       </c>
-      <c r="M19" s="5">
+      <c r="Q19" s="5">
         <f t="shared" si="10"/>
         <v>-24.435999999999989</v>
       </c>
-      <c r="N19" s="5">
+      <c r="R19" s="5">
         <f t="shared" si="10"/>
         <v>-159.59999999999997</v>
       </c>
-      <c r="O19" s="5">
+      <c r="S19" s="5">
         <f t="shared" si="10"/>
         <v>77.899999999999906</v>
       </c>
-      <c r="P19" s="5">
-        <f>+P15+P16-P17+P18</f>
+      <c r="T19" s="5">
+        <f>+T15+T16-T17+T18</f>
         <v>69.099999999999937</v>
       </c>
-      <c r="Q19" s="5">
-        <f>+Q15+Q16-Q17+Q18</f>
+      <c r="U19" s="5">
+        <f>+U15+U16-U17+U18</f>
         <v>279.60000000000025</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -3484,8 +3625,12 @@
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+    </row>
+    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>58</v>
       </c>
@@ -3515,29 +3660,31 @@
         <f t="shared" si="1"/>
         <v>2.0999999999999943</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5">
+      <c r="K20" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5">
         <v>4.62</v>
       </c>
-      <c r="M20" s="5">
+      <c r="Q20" s="5">
         <v>3.0830000000000002</v>
       </c>
-      <c r="N20" s="5">
+      <c r="R20" s="5">
         <v>10.6</v>
       </c>
-      <c r="O20" s="5">
+      <c r="S20" s="5">
         <v>20.2</v>
       </c>
-      <c r="P20" s="5">
+      <c r="T20" s="5">
         <v>-10.5</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="U20" s="5">
         <v>37.4</v>
       </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -3554,8 +3701,12 @@
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+    </row>
+    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -3591,35 +3742,38 @@
         <f t="shared" si="1"/>
         <v>89.400000000000233</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5">
-        <f t="shared" ref="L21:O21" si="12">+L19-L20</f>
+      <c r="K21" s="5">
+        <f>+K19-K20</f>
+        <v>56.800000000000011</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5">
+        <f t="shared" ref="P21:S21" si="12">+P19-P20</f>
         <v>-1.4739999999999789</v>
       </c>
-      <c r="M21" s="5">
+      <c r="Q21" s="5">
         <f t="shared" si="12"/>
         <v>-27.518999999999991</v>
       </c>
-      <c r="N21" s="5">
+      <c r="R21" s="5">
         <f t="shared" si="12"/>
         <v>-170.19999999999996</v>
       </c>
-      <c r="O21" s="5">
+      <c r="S21" s="5">
         <f t="shared" si="12"/>
         <v>57.699999999999903</v>
       </c>
-      <c r="P21" s="5">
-        <f>+P19-P20</f>
+      <c r="T21" s="5">
+        <f>+T19-T20</f>
         <v>79.599999999999937</v>
       </c>
-      <c r="Q21" s="5">
-        <f>+Q19-Q20</f>
+      <c r="U21" s="5">
+        <f>+U19-U20</f>
         <v>242.20000000000024</v>
       </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -3636,12 +3790,12 @@
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+    </row>
+    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -3665,8 +3819,12 @@
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
-    </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+    </row>
+    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -3699,36 +3857,39 @@
         <v>0.10547035930930765</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" ref="J23" si="14">+J21/J24</f>
+        <f t="shared" ref="J23:K23" si="14">+J21/J24</f>
         <v>0.30865931272619346</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="22" t="s">
+      <c r="K23" s="6">
+        <f t="shared" si="14"/>
+        <v>0.19363330951098184</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="Q23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="9">
-        <f t="shared" ref="N23:P23" si="15">+N21/N24</f>
+      <c r="R23" s="9">
+        <f t="shared" ref="R23:T23" si="15">+R21/R24</f>
         <v>-0.6442791449096904</v>
       </c>
-      <c r="O23" s="9">
+      <c r="S23" s="9">
         <f t="shared" si="15"/>
         <v>0.20446745803841362</v>
       </c>
-      <c r="P23" s="9">
+      <c r="T23" s="9">
         <f t="shared" si="15"/>
         <v>0.27951160025110511</v>
       </c>
-      <c r="Q23" s="9">
-        <f>+Q21/Q24</f>
+      <c r="U23" s="9">
+        <f>+U21/U24</f>
         <v>0.83621124767655408</v>
       </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
@@ -3745,8 +3906,12 @@
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+    </row>
+    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -3760,7 +3925,7 @@
         <v>284.12787700000001</v>
       </c>
       <c r="F24" s="5">
-        <f>+P24</f>
+        <f>+T24</f>
         <v>284.78245600000002</v>
       </c>
       <c r="G24" s="5">
@@ -3773,32 +3938,34 @@
         <v>288.23263900000001</v>
       </c>
       <c r="J24" s="5">
-        <f>+Q24</f>
+        <f>+U24</f>
         <v>289.63972999999999</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="22" t="s">
+      <c r="K24" s="5">
+        <v>293.33796000000001</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="Q24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="5">
+      <c r="R24" s="5">
         <v>264.17120799999998</v>
       </c>
-      <c r="O24" s="5">
+      <c r="S24" s="5">
         <v>282.19649500000003</v>
       </c>
-      <c r="P24" s="5">
+      <c r="T24" s="5">
         <v>284.78245600000002</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="U24" s="5">
         <v>289.63972999999999</v>
       </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
@@ -3815,8 +3982,12 @@
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+    </row>
+    <row r="25" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -3851,8 +4022,12 @@
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+    </row>
+    <row r="26" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>42</v>
       </c>
@@ -3873,37 +4048,40 @@
         <v>0.15138888888888902</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" ref="J26:J34" si="18">+J3/F3-1</f>
+        <f t="shared" ref="J26:K34" si="18">+J3/F3-1</f>
         <v>0.31372549019607776</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="22" t="s">
+      <c r="K26" s="8">
+        <f t="shared" si="18"/>
+        <v>0.33597464342313788</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M26" s="8">
-        <f t="shared" ref="M26:M34" si="19">+M3/L3-1</f>
+      <c r="Q26" s="8">
+        <f t="shared" ref="Q26:Q34" si="19">+Q3/P3-1</f>
         <v>0.41249672708230301</v>
       </c>
-      <c r="N26" s="8">
-        <f t="shared" ref="N26:N34" si="20">+N3/M3-1</f>
+      <c r="R26" s="8">
+        <f t="shared" ref="R26:R34" si="20">+R3/Q3-1</f>
         <v>0.40262709377107919</v>
       </c>
-      <c r="O26" s="8">
-        <f t="shared" ref="O26:P34" si="21">+O3/N3-1</f>
+      <c r="S26" s="8">
+        <f t="shared" ref="S26:T34" si="21">+S3/R3-1</f>
         <v>0.38803230543318668</v>
       </c>
-      <c r="P26" s="8">
+      <c r="T26" s="8">
         <f t="shared" si="21"/>
         <v>0.29251520761703231</v>
       </c>
-      <c r="Q26" s="8">
-        <f>+Q3/P3-1</f>
+      <c r="U26" s="8">
+        <f>+U3/T3-1</f>
         <v>0.18232044198895014</v>
       </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
@@ -3920,8 +4098,12 @@
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
-    </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+    </row>
+    <row r="27" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>43</v>
       </c>
@@ -3945,34 +4127,37 @@
         <f t="shared" si="18"/>
         <v>0.28186356073211272</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="22" t="s">
+      <c r="K27" s="8">
+        <f t="shared" si="18"/>
+        <v>0.32706310679611628</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="8">
+      <c r="Q27" s="8">
         <f t="shared" si="19"/>
         <v>0.86191068440690399</v>
       </c>
-      <c r="N27" s="8">
+      <c r="R27" s="8">
         <f t="shared" si="20"/>
         <v>0.9679079624583713</v>
       </c>
-      <c r="O27" s="8">
+      <c r="S27" s="8">
         <f t="shared" si="21"/>
         <v>0.86520146520146501</v>
       </c>
-      <c r="P27" s="8">
+      <c r="T27" s="8">
         <f t="shared" si="21"/>
         <v>0.52160251374705435</v>
       </c>
-      <c r="Q27" s="8">
-        <f t="shared" ref="Q27:Q34" si="23">+Q4/P4-1</f>
+      <c r="U27" s="8">
+        <f t="shared" ref="U27:U34" si="23">+U4/T4-1</f>
         <v>0.273705042161418</v>
       </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
@@ -3989,8 +4174,12 @@
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+    </row>
+    <row r="28" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>44</v>
       </c>
@@ -4014,34 +4203,37 @@
         <f t="shared" si="18"/>
         <v>1.1574344023323624</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="22" t="s">
+      <c r="K28" s="8">
+        <f t="shared" si="18"/>
+        <v>1.3015267175572518</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M28" s="8">
+      <c r="Q28" s="8">
         <f t="shared" si="19"/>
         <v>0.28723344713718024</v>
       </c>
-      <c r="N28" s="8">
+      <c r="R28" s="8">
         <f t="shared" si="20"/>
         <v>0.85660246097656434</v>
       </c>
-      <c r="O28" s="8">
+      <c r="S28" s="8">
         <f t="shared" si="21"/>
         <v>0.87822014051522235</v>
       </c>
-      <c r="P28" s="8">
+      <c r="T28" s="8">
         <f t="shared" si="21"/>
         <v>0.75935162094763076</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="U28" s="8">
         <f t="shared" si="23"/>
         <v>0.84408221119773219</v>
       </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
@@ -4058,8 +4250,12 @@
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+    </row>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -4083,34 +4279,37 @@
         <f t="shared" si="18"/>
         <v>0.33560356975105576</v>
       </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="22" t="s">
+      <c r="K29" s="8">
+        <f t="shared" si="18"/>
+        <v>0.40478646585516809</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M29" s="8">
+      <c r="Q29" s="8">
         <f t="shared" si="19"/>
         <v>0.58987058510555057</v>
       </c>
-      <c r="N29" s="8">
+      <c r="R29" s="8">
         <f t="shared" si="20"/>
         <v>0.68138979797731247</v>
       </c>
-      <c r="O29" s="8">
+      <c r="S29" s="8">
         <f t="shared" si="21"/>
         <v>0.70861993267964296</v>
       </c>
-      <c r="P29" s="8">
+      <c r="T29" s="8">
         <f t="shared" si="21"/>
         <v>0.46586723768736626</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="U29" s="8">
         <f t="shared" si="23"/>
         <v>0.28526352693701051</v>
       </c>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
@@ -4127,8 +4326,12 @@
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
-    </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+    </row>
+    <row r="30" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>46</v>
       </c>
@@ -4152,34 +4355,37 @@
         <f t="shared" si="18"/>
         <v>0.76216216216216193</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="22" t="s">
+      <c r="K30" s="8">
+        <f t="shared" si="18"/>
+        <v>0.93401015228426409</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M30" s="8">
+      <c r="Q30" s="8">
         <f t="shared" si="19"/>
         <v>0.64576802507836994</v>
       </c>
-      <c r="N30" s="8">
+      <c r="R30" s="8">
         <f t="shared" si="20"/>
         <v>1.3047619047619046</v>
       </c>
-      <c r="O30" s="8">
+      <c r="S30" s="8">
         <f t="shared" si="21"/>
         <v>0.30303030303030298</v>
       </c>
-      <c r="P30" s="8">
+      <c r="T30" s="8">
         <f t="shared" si="21"/>
         <v>0.45665961945031741</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="U30" s="8">
         <f t="shared" si="23"/>
         <v>0.46589259796806948</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
@@ -4196,8 +4402,12 @@
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
-    </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+    </row>
+    <row r="31" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -4221,34 +4431,37 @@
         <f t="shared" si="18"/>
         <v>0.89285714285714257</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="22" t="s">
+      <c r="K31" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M31" s="8">
+      <c r="Q31" s="8">
         <f t="shared" si="19"/>
         <v>0.62796697626418974</v>
       </c>
-      <c r="N31" s="8">
+      <c r="R31" s="8">
         <f t="shared" si="20"/>
         <v>0.58478605388272586</v>
       </c>
-      <c r="O31" s="8">
+      <c r="S31" s="8">
         <f t="shared" si="21"/>
         <v>0.48</v>
       </c>
-      <c r="P31" s="8">
+      <c r="T31" s="8">
         <f t="shared" si="21"/>
         <v>0.59459459459459452</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="U31" s="8">
         <f t="shared" si="23"/>
         <v>0.49999999999999978</v>
       </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
@@ -4265,8 +4478,12 @@
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+    </row>
+    <row r="32" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>48</v>
       </c>
@@ -4290,34 +4507,37 @@
         <f t="shared" si="18"/>
         <v>0.29052369077306772</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="22" t="s">
+      <c r="K32" s="8">
+        <f t="shared" si="18"/>
+        <v>0.41548630783758256</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M32" s="8">
+      <c r="Q32" s="8">
         <f t="shared" si="19"/>
         <v>0.31937164949480867</v>
       </c>
-      <c r="N32" s="8">
+      <c r="R32" s="8">
         <f t="shared" si="20"/>
         <v>0.69474244672776497</v>
       </c>
-      <c r="O32" s="8">
+      <c r="S32" s="8">
         <f t="shared" si="21"/>
         <v>0.73128342245989297</v>
       </c>
-      <c r="P32" s="8">
+      <c r="T32" s="8">
         <f t="shared" si="21"/>
         <v>0.44182754182754169</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="U32" s="8">
         <f t="shared" si="23"/>
         <v>0.22779612603766863</v>
       </c>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
@@ -4334,8 +4554,12 @@
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
-    </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+    </row>
+    <row r="33" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>49</v>
       </c>
@@ -4359,34 +4583,37 @@
         <f t="shared" si="18"/>
         <v>0.43368828654404701</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="22" t="s">
+      <c r="K33" s="8">
+        <f t="shared" si="18"/>
+        <v>0.45354330708661394</v>
+      </c>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="8">
+      <c r="Q33" s="8">
         <f t="shared" si="19"/>
         <v>1.4166616468887416</v>
       </c>
-      <c r="N33" s="8">
+      <c r="R33" s="8">
         <f t="shared" si="20"/>
         <v>0.71863705476208284</v>
       </c>
-      <c r="O33" s="8">
+      <c r="S33" s="8">
         <f t="shared" si="21"/>
         <v>0.61385061638868743</v>
       </c>
-      <c r="P33" s="8">
+      <c r="T33" s="8">
         <f t="shared" si="21"/>
         <v>0.50932374747247788</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="U33" s="8">
         <f t="shared" si="23"/>
         <v>0.40339386722238757</v>
       </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
@@ -4403,59 +4630,66 @@
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
-    </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+    </row>
+    <row r="34" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="88">
         <f t="shared" ref="G34:H34" si="30">+G11/C11-1</f>
         <v>0.20942408376963351</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="88">
         <f t="shared" si="30"/>
         <v>0.2777402655863157</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="88">
         <f t="shared" si="17"/>
         <v>0.32320499479708631</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="88">
         <f t="shared" si="18"/>
         <v>0.35674345783941019</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="22" t="s">
+      <c r="K34" s="88">
+        <f t="shared" si="18"/>
+        <v>0.4297520661157026</v>
+      </c>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="M34" s="8">
+      <c r="Q34" s="88">
         <f t="shared" si="19"/>
         <v>0.59213087750823612</v>
       </c>
-      <c r="N34" s="8">
+      <c r="R34" s="88">
         <f t="shared" si="20"/>
         <v>0.70377859813303867</v>
       </c>
-      <c r="O34" s="8">
+      <c r="S34" s="88">
         <f t="shared" si="21"/>
         <v>0.68658570245652761</v>
       </c>
-      <c r="P34" s="8">
+      <c r="T34" s="88">
         <f t="shared" si="21"/>
         <v>0.46641027739137564</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="U34" s="88">
         <f t="shared" si="23"/>
         <v>0.29362200770046321</v>
       </c>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
@@ -4472,8 +4706,12 @@
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
-    </row>
-    <row r="35" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+    </row>
+    <row r="35" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>51</v>
       </c>
@@ -4509,35 +4747,38 @@
         <f>+J13/J11</f>
         <v>0.62116716122650839</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="8">
-        <f t="shared" ref="L35:N35" si="32">+L13/L11</f>
+      <c r="K35" s="8">
+        <f>+K13/K11</f>
+        <v>0.59909165978530143</v>
+      </c>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="8">
+        <f t="shared" ref="P35:R35" si="32">+P13/P11</f>
         <v>0.53577792752321063</v>
       </c>
-      <c r="M35" s="8">
+      <c r="Q35" s="8">
         <f t="shared" si="32"/>
         <v>0.54339391944320348</v>
       </c>
-      <c r="N35" s="8">
+      <c r="R35" s="8">
         <f t="shared" si="32"/>
         <v>0.59384487993375656</v>
       </c>
-      <c r="O35" s="8">
-        <f t="shared" ref="O35:P35" si="33">+O13/O11</f>
+      <c r="S35" s="8">
+        <f t="shared" ref="S35:T35" si="33">+S13/S11</f>
         <v>0.56042877014974213</v>
       </c>
-      <c r="P35" s="8">
+      <c r="T35" s="8">
         <f t="shared" si="33"/>
         <v>0.5955582835779254</v>
       </c>
-      <c r="Q35" s="8">
-        <f>+Q13/Q11</f>
+      <c r="U35" s="8">
+        <f>+U13/U11</f>
         <v>0.60634948022257695</v>
       </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
@@ -4554,8 +4795,12 @@
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
-    </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+    </row>
+    <row r="36" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>52</v>
       </c>
@@ -4591,35 +4836,38 @@
         <f>+J15/J11</f>
         <v>8.7372238707550454E-2</v>
       </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="8">
-        <f t="shared" ref="L36:N36" si="35">+L15/L11</f>
+      <c r="K36" s="8">
+        <f>+K15/K11</f>
+        <v>0.10611065235342695</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="8">
+        <f t="shared" ref="P36:R36" si="35">+P15/P11</f>
         <v>2.1297544174902747E-2</v>
       </c>
-      <c r="M36" s="8">
+      <c r="Q36" s="8">
         <f t="shared" si="35"/>
         <v>-4.0205506830633189E-2</v>
       </c>
-      <c r="N36" s="8">
+      <c r="R36" s="8">
         <f t="shared" si="35"/>
         <v>-0.19472812586254479</v>
       </c>
-      <c r="O36" s="8">
-        <f t="shared" ref="O36:P36" si="36">+O15/O11</f>
+      <c r="S36" s="8">
+        <f t="shared" ref="S36:T36" si="36">+S15/S11</f>
         <v>6.9634236150887749E-2</v>
       </c>
-      <c r="P36" s="8">
+      <c r="T36" s="8">
         <f t="shared" si="36"/>
         <v>0.10060822498744487</v>
       </c>
-      <c r="Q36" s="8">
-        <f>+Q15/Q11</f>
+      <c r="U36" s="8">
+        <f>+U15/U11</f>
         <v>9.1230643143682968E-2</v>
       </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
@@ -4636,8 +4884,12 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
-    </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+    </row>
+    <row r="37" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>53</v>
       </c>
@@ -4673,35 +4925,38 @@
         <f>+J20/J19</f>
         <v>-4.7835990888382675E-2</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="8">
-        <f t="shared" ref="L37:N37" si="38">+L20/L19</f>
+      <c r="K37" s="8">
+        <f>+K20/K19</f>
+        <v>0.11249999999999998</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="8">
+        <f t="shared" ref="P37:R37" si="38">+P20/P19</f>
         <v>1.4685314685314586</v>
       </c>
-      <c r="M37" s="8">
+      <c r="Q37" s="8">
         <f t="shared" si="38"/>
         <v>-0.12616631199869052</v>
       </c>
-      <c r="N37" s="8">
+      <c r="R37" s="8">
         <f t="shared" si="38"/>
         <v>-6.6416040100250637E-2</v>
       </c>
-      <c r="O37" s="8">
-        <f t="shared" ref="O37:P37" si="39">+O20/O19</f>
+      <c r="S37" s="8">
+        <f t="shared" ref="S37:T37" si="39">+S20/S19</f>
         <v>0.25930680359435204</v>
       </c>
-      <c r="P37" s="8">
+      <c r="T37" s="8">
         <f t="shared" si="39"/>
         <v>-0.15195369030390751</v>
       </c>
-      <c r="Q37" s="8">
-        <f>+Q20/Q19</f>
+      <c r="U37" s="8">
+        <f>+U20/U19</f>
         <v>0.13376251788268942</v>
       </c>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
@@ -4718,8 +4973,12 @@
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
-    </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+    </row>
+    <row r="38" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -4755,8 +5014,12 @@
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
       <c r="AK38" s="5"/>
-    </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+    </row>
+    <row r="39" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>67</v>
       </c>
@@ -4770,25 +5033,25 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="5">
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5">
         <v>90.641999999999996</v>
       </c>
-      <c r="N39" s="5">
+      <c r="R39" s="5">
         <v>653.08100000000002</v>
       </c>
-      <c r="O39" s="5">
+      <c r="S39" s="5">
         <v>371</v>
       </c>
-      <c r="P39" s="5">
+      <c r="T39" s="5">
         <v>494.6</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="U39" s="5">
         <v>924.3</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
@@ -4805,8 +5068,12 @@
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5"/>
-    </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+    </row>
+    <row r="40" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>68</v>
       </c>
@@ -4820,25 +5087,25 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="5">
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5">
         <v>51.631</v>
       </c>
-      <c r="N40" s="5">
+      <c r="R40" s="5">
         <v>99.263999999999996</v>
       </c>
-      <c r="O40" s="5">
+      <c r="S40" s="5">
         <v>174.6</v>
       </c>
-      <c r="P40" s="5">
+      <c r="T40" s="5">
         <v>204.8</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="U40" s="5">
         <v>246.1</v>
       </c>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
@@ -4855,8 +5122,12 @@
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5"/>
-    </row>
-    <row r="41" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+    </row>
+    <row r="41" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>69</v>
       </c>
@@ -4870,25 +5141,25 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="5">
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5">
         <v>102.878</v>
       </c>
-      <c r="N41" s="5">
+      <c r="R41" s="5">
         <v>134.178</v>
       </c>
-      <c r="O41" s="5">
+      <c r="S41" s="5">
         <v>395.6</v>
       </c>
-      <c r="P41" s="5">
+      <c r="T41" s="5">
         <v>356.5</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="U41" s="5">
         <v>419.2</v>
       </c>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
@@ -4905,8 +5176,12 @@
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
       <c r="AK41" s="5"/>
-    </row>
-    <row r="42" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+    </row>
+    <row r="42" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>70</v>
       </c>
@@ -4920,25 +5195,25 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="5">
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5">
         <v>17.135000000000002</v>
       </c>
-      <c r="N42" s="5">
+      <c r="R42" s="5">
         <v>30.053999999999998</v>
       </c>
-      <c r="O42" s="5">
+      <c r="S42" s="5">
         <v>33.200000000000003</v>
       </c>
-      <c r="P42" s="5">
+      <c r="T42" s="5">
         <v>34.200000000000003</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="U42" s="5">
         <v>56.4</v>
       </c>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
@@ -4955,8 +5230,12 @@
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
-    </row>
-    <row r="43" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+    </row>
+    <row r="43" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>71</v>
       </c>
@@ -4970,25 +5249,25 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5">
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5">
         <v>19.978999999999999</v>
       </c>
-      <c r="N43" s="5">
+      <c r="R43" s="5">
         <v>48.024000000000001</v>
       </c>
-      <c r="O43" s="5">
+      <c r="S43" s="5">
         <v>77</v>
       </c>
-      <c r="P43" s="5">
+      <c r="T43" s="5">
         <v>61.2</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="U43" s="5">
         <v>113.7</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
@@ -5005,8 +5284,12 @@
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
       <c r="AK43" s="5"/>
-    </row>
-    <row r="44" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+    </row>
+    <row r="44" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>72</v>
       </c>
@@ -5019,34 +5302,34 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="5">
-        <f t="shared" ref="L44:P44" si="40">+SUM(L39:L43)</f>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5">
+        <f t="shared" ref="P44:T44" si="40">+SUM(P39:P43)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="5">
+      <c r="Q44" s="5">
         <f t="shared" si="40"/>
         <v>282.26499999999999</v>
       </c>
-      <c r="N44" s="5">
+      <c r="R44" s="5">
         <f t="shared" si="40"/>
         <v>964.601</v>
       </c>
-      <c r="O44" s="5">
+      <c r="S44" s="5">
         <f t="shared" si="40"/>
         <v>1051.4000000000001</v>
       </c>
-      <c r="P44" s="5">
+      <c r="T44" s="5">
         <f t="shared" si="40"/>
         <v>1151.3000000000002</v>
       </c>
-      <c r="Q44" s="5">
-        <f>+SUM(Q39:Q43)</f>
+      <c r="U44" s="5">
+        <f>+SUM(U39:U43)</f>
         <v>1759.7</v>
       </c>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
@@ -5063,8 +5346,12 @@
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
       <c r="AK44" s="5"/>
-    </row>
-    <row r="45" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+    </row>
+    <row r="45" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>73</v>
       </c>
@@ -5078,25 +5365,25 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="5">
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5">
         <v>17.004000000000001</v>
       </c>
-      <c r="N45" s="5">
+      <c r="R45" s="5">
         <v>34.399000000000001</v>
       </c>
-      <c r="O45" s="5">
+      <c r="S45" s="5">
         <v>77.2</v>
       </c>
-      <c r="P45" s="5">
+      <c r="T45" s="5">
         <v>93.6</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="U45" s="5">
         <v>127.2</v>
       </c>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
@@ -5113,8 +5400,12 @@
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
       <c r="AK45" s="5"/>
-    </row>
-    <row r="46" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+    </row>
+    <row r="46" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>74</v>
       </c>
@@ -5128,25 +5419,25 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="5">
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5">
         <v>22.719000000000001</v>
       </c>
-      <c r="N46" s="5">
+      <c r="R46" s="5">
         <v>177.89</v>
       </c>
-      <c r="O46" s="5">
+      <c r="S46" s="5">
         <v>151.6</v>
       </c>
-      <c r="P46" s="5">
+      <c r="T46" s="5">
         <v>214</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="U46" s="5">
         <v>323.60000000000002</v>
       </c>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
@@ -5163,8 +5454,12 @@
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
       <c r="AK46" s="5"/>
-    </row>
-    <row r="47" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+    </row>
+    <row r="47" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>75</v>
       </c>
@@ -5178,25 +5473,25 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="5">
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5">
         <v>54.667000000000002</v>
       </c>
-      <c r="N47" s="5">
+      <c r="R47" s="5">
         <v>57.463999999999999</v>
       </c>
-      <c r="O47" s="5">
+      <c r="S47" s="5">
         <v>70.3</v>
       </c>
-      <c r="P47" s="5">
+      <c r="T47" s="5">
         <v>64.599999999999994</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="U47" s="5">
         <v>58.3</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
@@ -5213,8 +5508,12 @@
       <c r="AI47" s="5"/>
       <c r="AJ47" s="5"/>
       <c r="AK47" s="5"/>
-    </row>
-    <row r="48" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+    </row>
+    <row r="48" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>76</v>
       </c>
@@ -5228,25 +5527,25 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="5">
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5">
         <v>5.915</v>
       </c>
-      <c r="N48" s="5">
+      <c r="R48" s="5">
         <v>2.1709999999999998</v>
       </c>
-      <c r="O48" s="5">
+      <c r="S48" s="5">
         <v>31.7</v>
       </c>
-      <c r="P48" s="5">
+      <c r="T48" s="5">
         <v>69.5</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="U48" s="5">
         <v>107.8</v>
       </c>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
@@ -5263,8 +5562,12 @@
       <c r="AI48" s="5"/>
       <c r="AJ48" s="5"/>
       <c r="AK48" s="5"/>
-    </row>
-    <row r="49" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+    </row>
+    <row r="49" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>77</v>
       </c>
@@ -5277,34 +5580,34 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="5">
-        <f t="shared" ref="L49:P49" si="41">+SUM(L45:L48)</f>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5">
+        <f t="shared" ref="P49:T49" si="41">+SUM(P45:P48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="5">
+      <c r="Q49" s="5">
         <f t="shared" si="41"/>
         <v>100.30500000000001</v>
       </c>
-      <c r="N49" s="5">
+      <c r="R49" s="5">
         <f t="shared" si="41"/>
         <v>271.92399999999998</v>
       </c>
-      <c r="O49" s="5">
+      <c r="S49" s="5">
         <f t="shared" si="41"/>
         <v>330.8</v>
       </c>
-      <c r="P49" s="5">
+      <c r="T49" s="5">
         <f t="shared" si="41"/>
         <v>441.70000000000005</v>
       </c>
-      <c r="Q49" s="5">
-        <f>+SUM(Q45:Q48)</f>
+      <c r="U49" s="5">
+        <f>+SUM(U45:U48)</f>
         <v>616.9</v>
       </c>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -5321,8 +5624,12 @@
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
       <c r="AK49" s="5"/>
-    </row>
-    <row r="50" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+    </row>
+    <row r="50" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>78</v>
       </c>
@@ -5335,34 +5642,34 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="7">
-        <f t="shared" ref="L50:P50" si="42">+L49+L44</f>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="7">
+        <f t="shared" ref="P50:T50" si="42">+P49+P44</f>
         <v>0</v>
       </c>
-      <c r="M50" s="7">
+      <c r="Q50" s="7">
         <f t="shared" si="42"/>
         <v>382.57</v>
       </c>
-      <c r="N50" s="7">
+      <c r="R50" s="7">
         <f t="shared" si="42"/>
         <v>1236.5250000000001</v>
       </c>
-      <c r="O50" s="7">
+      <c r="S50" s="7">
         <f t="shared" si="42"/>
         <v>1382.2</v>
       </c>
-      <c r="P50" s="7">
+      <c r="T50" s="7">
         <f t="shared" si="42"/>
         <v>1593.0000000000002</v>
       </c>
-      <c r="Q50" s="7">
-        <f>+Q49+Q44</f>
+      <c r="U50" s="7">
+        <f>+U49+U44</f>
         <v>2376.6</v>
       </c>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
@@ -5379,8 +5686,12 @@
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
       <c r="AK50" s="5"/>
-    </row>
-    <row r="51" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+    </row>
+    <row r="51" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>79</v>
       </c>
@@ -5394,25 +5705,25 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="5">
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5">
         <v>41.542999999999999</v>
       </c>
-      <c r="N51" s="5">
+      <c r="R51" s="5">
         <v>45.939</v>
       </c>
-      <c r="O51" s="5">
+      <c r="S51" s="5">
         <v>111</v>
       </c>
-      <c r="P51" s="5">
+      <c r="T51" s="5">
         <v>65.099999999999994</v>
       </c>
-      <c r="Q51" s="5">
+      <c r="U51" s="5">
         <v>166.5</v>
       </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -5429,8 +5740,12 @@
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
       <c r="AK51" s="5"/>
-    </row>
-    <row r="52" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+    </row>
+    <row r="52" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>80</v>
       </c>
@@ -5444,25 +5759,25 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="5">
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5">
         <v>0</v>
       </c>
-      <c r="N52" s="5">
+      <c r="R52" s="5">
         <v>0</v>
       </c>
-      <c r="O52" s="5">
+      <c r="S52" s="5">
         <v>0</v>
       </c>
-      <c r="P52" s="5">
+      <c r="T52" s="5">
         <v>38.700000000000003</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="U52" s="5">
         <v>59.1</v>
       </c>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
@@ -5479,8 +5794,12 @@
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
       <c r="AK52" s="5"/>
-    </row>
-    <row r="53" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+    </row>
+    <row r="53" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>81</v>
       </c>
@@ -5494,25 +5813,25 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="5">
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5">
         <v>7.2759999999999998</v>
       </c>
-      <c r="N53" s="5">
+      <c r="R53" s="5">
         <v>20.097000000000001</v>
       </c>
-      <c r="O53" s="5">
+      <c r="S53" s="5">
         <v>31</v>
       </c>
-      <c r="P53" s="5">
+      <c r="T53" s="5">
         <v>14.8</v>
       </c>
-      <c r="Q53" s="5">
+      <c r="U53" s="5">
         <v>51.3</v>
       </c>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
@@ -5529,8 +5848,12 @@
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
       <c r="AK53" s="5"/>
-    </row>
-    <row r="54" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+    </row>
+    <row r="54" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>82</v>
       </c>
@@ -5544,25 +5867,25 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="5">
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5">
         <v>36.113</v>
       </c>
-      <c r="N54" s="5">
+      <c r="R54" s="5">
         <v>121.673</v>
       </c>
-      <c r="O54" s="5">
+      <c r="S54" s="5">
         <v>81.7</v>
       </c>
-      <c r="P54" s="5">
+      <c r="T54" s="5">
         <v>156.4</v>
       </c>
-      <c r="Q54" s="5">
+      <c r="U54" s="5">
         <v>299.3</v>
       </c>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
@@ -5579,8 +5902,12 @@
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
       <c r="AK54" s="5"/>
-    </row>
-    <row r="55" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+    </row>
+    <row r="55" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>83</v>
       </c>
@@ -5594,25 +5921,25 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="5">
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5">
         <v>0.376</v>
       </c>
-      <c r="N55" s="5">
+      <c r="R55" s="5">
         <v>14.901999999999999</v>
       </c>
-      <c r="O55" s="5">
+      <c r="S55" s="5">
         <v>5</v>
       </c>
-      <c r="P55" s="5">
+      <c r="T55" s="5">
         <v>7.1</v>
       </c>
-      <c r="Q55" s="5">
+      <c r="U55" s="5">
         <v>21.7</v>
       </c>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
@@ -5629,8 +5956,12 @@
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5"/>
       <c r="AK55" s="5"/>
-    </row>
-    <row r="56" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+    </row>
+    <row r="56" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>84</v>
       </c>
@@ -5644,25 +5975,25 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="5">
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5">
         <v>1.054</v>
       </c>
-      <c r="N56" s="5">
+      <c r="R56" s="5">
         <v>2.4</v>
       </c>
-      <c r="O56" s="5">
+      <c r="S56" s="5">
         <v>13.9</v>
       </c>
-      <c r="P56" s="5">
+      <c r="T56" s="5">
         <v>23.5</v>
       </c>
-      <c r="Q56" s="5">
+      <c r="U56" s="5">
         <v>62.5</v>
       </c>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
@@ -5679,8 +6010,12 @@
       <c r="AI56" s="5"/>
       <c r="AJ56" s="5"/>
       <c r="AK56" s="5"/>
-    </row>
-    <row r="57" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+    </row>
+    <row r="57" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>85</v>
       </c>
@@ -5693,34 +6028,34 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="5">
-        <f t="shared" ref="L57:P57" si="43">+SUM(L51:L56)</f>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5">
+        <f t="shared" ref="P57:T57" si="43">+SUM(P51:P56)</f>
         <v>0</v>
       </c>
-      <c r="M57" s="5">
+      <c r="Q57" s="5">
         <f t="shared" si="43"/>
         <v>86.362000000000009</v>
       </c>
-      <c r="N57" s="5">
+      <c r="R57" s="5">
         <f t="shared" si="43"/>
         <v>205.011</v>
       </c>
-      <c r="O57" s="5">
+      <c r="S57" s="5">
         <f t="shared" si="43"/>
         <v>242.6</v>
       </c>
-      <c r="P57" s="5">
+      <c r="T57" s="5">
         <f t="shared" si="43"/>
         <v>305.60000000000002</v>
       </c>
-      <c r="Q57" s="5">
-        <f>+SUM(Q51:Q56)</f>
+      <c r="U57" s="5">
+        <f>+SUM(U51:U56)</f>
         <v>660.40000000000009</v>
       </c>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
@@ -5737,8 +6072,12 @@
       <c r="AI57" s="5"/>
       <c r="AJ57" s="5"/>
       <c r="AK57" s="5"/>
-    </row>
-    <row r="58" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="5"/>
+    </row>
+    <row r="58" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>87</v>
       </c>
@@ -5752,25 +6091,25 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="5">
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5">
         <v>5.63</v>
       </c>
-      <c r="N58" s="5">
+      <c r="R58" s="5">
         <v>5.8529999999999998</v>
       </c>
-      <c r="O58" s="5">
+      <c r="S58" s="5">
         <v>6.3</v>
       </c>
-      <c r="P58" s="5">
+      <c r="T58" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q58" s="5">
+      <c r="U58" s="5">
         <v>8.6</v>
       </c>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
@@ -5787,8 +6126,12 @@
       <c r="AI58" s="5"/>
       <c r="AJ58" s="5"/>
       <c r="AK58" s="5"/>
-    </row>
-    <row r="59" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+    </row>
+    <row r="59" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>86</v>
       </c>
@@ -5802,25 +6145,25 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="5">
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5">
         <v>20.645</v>
       </c>
-      <c r="N59" s="5">
+      <c r="R59" s="5">
         <v>4.4420000000000002</v>
       </c>
-      <c r="O59" s="5">
+      <c r="S59" s="5">
         <v>7.2</v>
       </c>
-      <c r="P59" s="5">
+      <c r="T59" s="5">
         <v>10</v>
       </c>
-      <c r="Q59" s="5">
+      <c r="U59" s="5">
         <v>14.9</v>
       </c>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
@@ -5837,8 +6180,12 @@
       <c r="AI59" s="5"/>
       <c r="AJ59" s="5"/>
       <c r="AK59" s="5"/>
-    </row>
-    <row r="60" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+    </row>
+    <row r="60" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>88</v>
       </c>
@@ -5851,28 +6198,28 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="5">
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5">
         <v>0</v>
       </c>
-      <c r="M60" s="5">
+      <c r="Q60" s="5">
         <v>0</v>
       </c>
-      <c r="N60" s="5">
+      <c r="R60" s="5">
         <v>0</v>
       </c>
-      <c r="O60" s="5">
+      <c r="S60" s="5">
         <v>0</v>
       </c>
-      <c r="P60" s="5">
+      <c r="T60" s="5">
         <v>190.3</v>
       </c>
-      <c r="Q60" s="5">
+      <c r="U60" s="5">
         <v>288.5</v>
       </c>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
@@ -5889,8 +6236,12 @@
       <c r="AI60" s="5"/>
       <c r="AJ60" s="5"/>
       <c r="AK60" s="5"/>
-    </row>
-    <row r="61" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+    </row>
+    <row r="61" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>81</v>
       </c>
@@ -5904,25 +6255,25 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="5">
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5">
         <v>19.173999999999999</v>
       </c>
-      <c r="N61" s="5">
+      <c r="R61" s="5">
         <v>167.22800000000001</v>
       </c>
-      <c r="O61" s="5">
+      <c r="S61" s="5">
         <v>138.80000000000001</v>
       </c>
-      <c r="P61" s="5">
+      <c r="T61" s="5">
         <v>0</v>
       </c>
-      <c r="Q61" s="5">
+      <c r="U61" s="5">
         <v>1.7</v>
       </c>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
@@ -5939,8 +6290,12 @@
       <c r="AI61" s="5"/>
       <c r="AJ61" s="5"/>
       <c r="AK61" s="5"/>
-    </row>
-    <row r="62" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL61" s="5"/>
+      <c r="AM61" s="5"/>
+      <c r="AN61" s="5"/>
+      <c r="AO61" s="5"/>
+    </row>
+    <row r="62" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>89</v>
       </c>
@@ -5954,25 +6309,25 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="5">
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5">
         <v>5.6639999999999997</v>
       </c>
-      <c r="N62" s="5">
+      <c r="R62" s="5">
         <v>5.6109999999999998</v>
       </c>
-      <c r="O62" s="5">
+      <c r="S62" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="P62" s="5">
+      <c r="T62" s="5">
         <v>10.4</v>
       </c>
-      <c r="Q62" s="5">
+      <c r="U62" s="5">
         <v>10.8</v>
       </c>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
@@ -5989,8 +6344,12 @@
       <c r="AI62" s="5"/>
       <c r="AJ62" s="5"/>
       <c r="AK62" s="5"/>
-    </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="5"/>
+    </row>
+    <row r="63" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>90</v>
       </c>
@@ -6003,34 +6362,34 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="5">
-        <f t="shared" ref="L63:P63" si="44">+SUM(L58:L62)</f>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5">
+        <f t="shared" ref="P63:T63" si="44">+SUM(P58:P62)</f>
         <v>0</v>
       </c>
-      <c r="M63" s="5">
+      <c r="Q63" s="5">
         <f t="shared" si="44"/>
         <v>51.113</v>
       </c>
-      <c r="N63" s="5">
+      <c r="R63" s="5">
         <f t="shared" si="44"/>
         <v>183.13399999999999</v>
       </c>
-      <c r="O63" s="5">
+      <c r="S63" s="5">
         <f t="shared" si="44"/>
         <v>170.20000000000002</v>
       </c>
-      <c r="P63" s="5">
+      <c r="T63" s="5">
         <f t="shared" si="44"/>
         <v>212.9</v>
       </c>
-      <c r="Q63" s="5">
-        <f>+SUM(Q58:Q62)</f>
+      <c r="U63" s="5">
+        <f>+SUM(U58:U62)</f>
         <v>324.5</v>
       </c>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
@@ -6047,8 +6406,12 @@
       <c r="AI63" s="5"/>
       <c r="AJ63" s="5"/>
       <c r="AK63" s="5"/>
-    </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="5"/>
+      <c r="AO63" s="5"/>
+    </row>
+    <row r="64" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>91</v>
       </c>
@@ -6061,34 +6424,34 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="5">
-        <f t="shared" ref="L64:P64" si="45">+L63+L57</f>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5">
+        <f t="shared" ref="P64:T64" si="45">+P63+P57</f>
         <v>0</v>
       </c>
-      <c r="M64" s="5">
+      <c r="Q64" s="5">
         <f t="shared" si="45"/>
         <v>137.47500000000002</v>
       </c>
-      <c r="N64" s="5">
+      <c r="R64" s="5">
         <f t="shared" si="45"/>
         <v>388.14499999999998</v>
       </c>
-      <c r="O64" s="5">
+      <c r="S64" s="5">
         <f t="shared" si="45"/>
         <v>412.8</v>
       </c>
-      <c r="P64" s="5">
+      <c r="T64" s="5">
         <f t="shared" si="45"/>
         <v>518.5</v>
       </c>
-      <c r="Q64" s="5">
-        <f>+Q63+Q57</f>
+      <c r="U64" s="5">
+        <f>+U63+U57</f>
         <v>984.90000000000009</v>
       </c>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
@@ -6105,8 +6468,12 @@
       <c r="AI64" s="5"/>
       <c r="AJ64" s="5"/>
       <c r="AK64" s="5"/>
-    </row>
-    <row r="65" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="5"/>
+      <c r="AO64" s="5"/>
+    </row>
+    <row r="65" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>92</v>
       </c>
@@ -6120,25 +6487,25 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="5">
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5">
         <v>245.09299999999999</v>
       </c>
-      <c r="N65" s="5">
+      <c r="R65" s="5">
         <v>838.37900000000002</v>
       </c>
-      <c r="O65" s="5">
+      <c r="S65" s="5">
         <v>969.5</v>
       </c>
-      <c r="P65" s="5">
+      <c r="T65" s="5">
         <v>1074.5</v>
       </c>
-      <c r="Q65" s="5">
+      <c r="U65" s="5">
         <v>1391.8</v>
       </c>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
@@ -6155,8 +6522,12 @@
       <c r="AI65" s="5"/>
       <c r="AJ65" s="5"/>
       <c r="AK65" s="5"/>
-    </row>
-    <row r="66" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL65" s="5"/>
+      <c r="AM65" s="5"/>
+      <c r="AN65" s="5"/>
+      <c r="AO65" s="5"/>
+    </row>
+    <row r="66" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>93</v>
       </c>
@@ -6169,34 +6540,34 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="7">
-        <f t="shared" ref="L66:P66" si="46">+L64+L65</f>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="7">
+        <f t="shared" ref="P66:T66" si="46">+P64+P65</f>
         <v>0</v>
       </c>
-      <c r="M66" s="7">
+      <c r="Q66" s="7">
         <f t="shared" si="46"/>
         <v>382.56799999999998</v>
       </c>
-      <c r="N66" s="7">
+      <c r="R66" s="7">
         <f t="shared" si="46"/>
         <v>1226.5239999999999</v>
       </c>
-      <c r="O66" s="7">
+      <c r="S66" s="7">
         <f t="shared" si="46"/>
         <v>1382.3</v>
       </c>
-      <c r="P66" s="7">
+      <c r="T66" s="7">
         <f t="shared" si="46"/>
         <v>1593</v>
       </c>
-      <c r="Q66" s="7">
-        <f>+Q64+Q65</f>
+      <c r="U66" s="7">
+        <f>+U64+U65</f>
         <v>2376.6999999999998</v>
       </c>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
@@ -6213,8 +6584,12 @@
       <c r="AI66" s="5"/>
       <c r="AJ66" s="5"/>
       <c r="AK66" s="5"/>
-    </row>
-    <row r="67" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="5"/>
+    </row>
+    <row r="67" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -6250,8 +6625,12 @@
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5"/>
       <c r="AK67" s="5"/>
-    </row>
-    <row r="68" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="5"/>
+    </row>
+    <row r="68" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>36</v>
       </c>
@@ -6264,28 +6643,28 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="5">
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5">
         <v>-1.4730000000000001</v>
       </c>
-      <c r="M68" s="5">
+      <c r="Q68" s="5">
         <v>-27.524000000000001</v>
       </c>
-      <c r="N68" s="5">
+      <c r="R68" s="5">
         <v>-170.22800000000001</v>
       </c>
-      <c r="O68" s="5">
+      <c r="S68" s="5">
         <v>57.7</v>
       </c>
-      <c r="P68" s="5">
+      <c r="T68" s="5">
         <v>79.599999999999994</v>
       </c>
-      <c r="Q68" s="5">
+      <c r="U68" s="5">
         <v>242.3</v>
       </c>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
@@ -6302,8 +6681,12 @@
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
       <c r="AK68" s="5"/>
-    </row>
-    <row r="69" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="5"/>
+      <c r="AO68" s="5"/>
+    </row>
+    <row r="69" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>94</v>
       </c>
@@ -6316,28 +6699,28 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="5">
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5">
         <v>18.838000000000001</v>
       </c>
-      <c r="M69" s="5">
+      <c r="Q69" s="5">
         <v>48.631</v>
       </c>
-      <c r="N69" s="5">
+      <c r="R69" s="5">
         <v>192.43600000000001</v>
       </c>
-      <c r="O69" s="5">
+      <c r="S69" s="5">
         <v>38.299999999999997</v>
       </c>
-      <c r="P69" s="5">
+      <c r="T69" s="5">
         <v>27.3</v>
       </c>
-      <c r="Q69" s="5">
+      <c r="U69" s="5">
         <v>57.5</v>
       </c>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
@@ -6354,8 +6737,12 @@
       <c r="AI69" s="5"/>
       <c r="AJ69" s="5"/>
       <c r="AK69" s="5"/>
-    </row>
-    <row r="70" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL69" s="5"/>
+      <c r="AM69" s="5"/>
+      <c r="AN69" s="5"/>
+      <c r="AO69" s="5"/>
+    </row>
+    <row r="70" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>95</v>
       </c>
@@ -6368,28 +6755,28 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="5">
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5">
         <v>-0.14299999999999999</v>
       </c>
-      <c r="M70" s="5">
+      <c r="Q70" s="5">
         <v>0.95699999999999996</v>
       </c>
-      <c r="N70" s="5">
+      <c r="R70" s="5">
         <v>1.121</v>
       </c>
-      <c r="O70" s="5">
+      <c r="S70" s="5">
         <v>4.8</v>
       </c>
-      <c r="P70" s="5">
+      <c r="T70" s="5">
         <v>-7.5</v>
       </c>
-      <c r="Q70" s="5">
+      <c r="U70" s="5">
         <v>5.2</v>
       </c>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
@@ -6406,8 +6793,12 @@
       <c r="AI70" s="5"/>
       <c r="AJ70" s="5"/>
       <c r="AK70" s="5"/>
-    </row>
-    <row r="71" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="5"/>
+    </row>
+    <row r="71" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>96</v>
       </c>
@@ -6420,28 +6811,28 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="5">
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5">
         <v>5.3419999999999996</v>
       </c>
-      <c r="M71" s="5">
+      <c r="Q71" s="5">
         <v>12.090999999999999</v>
       </c>
-      <c r="N71" s="5">
+      <c r="R71" s="5">
         <v>31.413</v>
       </c>
-      <c r="O71" s="5">
+      <c r="S71" s="5">
         <v>46.4</v>
       </c>
-      <c r="P71" s="5">
+      <c r="T71" s="5">
         <v>64.900000000000006</v>
       </c>
-      <c r="Q71" s="5">
+      <c r="U71" s="5">
         <v>104.6</v>
       </c>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
@@ -6458,8 +6849,12 @@
       <c r="AI71" s="5"/>
       <c r="AJ71" s="5"/>
       <c r="AK71" s="5"/>
-    </row>
-    <row r="72" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="5"/>
+    </row>
+    <row r="72" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>98</v>
       </c>
@@ -6472,28 +6867,28 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="5">
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5">
         <v>0</v>
       </c>
-      <c r="M72" s="5">
+      <c r="Q72" s="5">
         <v>0</v>
       </c>
-      <c r="N72" s="5">
+      <c r="R72" s="5">
         <v>0</v>
       </c>
-      <c r="O72" s="5">
+      <c r="S72" s="5">
         <v>0.9</v>
       </c>
-      <c r="P72" s="5">
+      <c r="T72" s="5">
         <v>0.6</v>
       </c>
-      <c r="Q72" s="5">
+      <c r="U72" s="5">
         <v>0.7</v>
       </c>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
@@ -6510,8 +6905,12 @@
       <c r="AI72" s="5"/>
       <c r="AJ72" s="5"/>
       <c r="AK72" s="5"/>
-    </row>
-    <row r="73" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL72" s="5"/>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="5"/>
+      <c r="AO72" s="5"/>
+    </row>
+    <row r="73" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>99</v>
       </c>
@@ -6524,28 +6923,28 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="5">
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5">
         <v>0.502</v>
       </c>
-      <c r="M73" s="5">
+      <c r="Q73" s="5">
         <v>0.60199999999999998</v>
       </c>
-      <c r="N73" s="5">
+      <c r="R73" s="5">
         <v>2.7770000000000001</v>
       </c>
-      <c r="O73" s="5">
+      <c r="S73" s="5">
         <v>-0.8</v>
       </c>
-      <c r="P73" s="5">
+      <c r="T73" s="5">
         <v>-4.5</v>
       </c>
-      <c r="Q73" s="5">
+      <c r="U73" s="5">
         <v>-7.2</v>
       </c>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
@@ -6562,8 +6961,12 @@
       <c r="AI73" s="5"/>
       <c r="AJ73" s="5"/>
       <c r="AK73" s="5"/>
-    </row>
-    <row r="74" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL73" s="5"/>
+      <c r="AM73" s="5"/>
+      <c r="AN73" s="5"/>
+      <c r="AO73" s="5"/>
+    </row>
+    <row r="74" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>100</v>
       </c>
@@ -6576,28 +6979,28 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="5">
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5">
         <v>1.518</v>
       </c>
-      <c r="M74" s="5">
+      <c r="Q74" s="5">
         <v>6.6660000000000004</v>
       </c>
-      <c r="N74" s="5">
+      <c r="R74" s="5">
         <v>15.183</v>
       </c>
-      <c r="O74" s="5">
+      <c r="S74" s="5">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="P74" s="5">
+      <c r="T74" s="5">
         <v>102.9</v>
       </c>
-      <c r="Q74" s="5">
+      <c r="U74" s="5">
         <v>-70.900000000000006</v>
       </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
@@ -6614,8 +7017,12 @@
       <c r="AI74" s="5"/>
       <c r="AJ74" s="5"/>
       <c r="AK74" s="5"/>
-    </row>
-    <row r="75" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+    </row>
+    <row r="75" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>101</v>
       </c>
@@ -6628,28 +7035,28 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="5">
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5">
         <v>4.62</v>
       </c>
-      <c r="M75" s="5">
+      <c r="Q75" s="5">
         <v>3.0830000000000002</v>
       </c>
-      <c r="N75" s="5">
+      <c r="R75" s="5">
         <v>10.625</v>
       </c>
-      <c r="O75" s="5">
+      <c r="S75" s="5">
         <v>20.2</v>
       </c>
-      <c r="P75" s="5">
+      <c r="T75" s="5">
         <v>-10.5</v>
       </c>
-      <c r="Q75" s="5">
+      <c r="U75" s="5">
         <v>37.4</v>
       </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
@@ -6666,8 +7073,12 @@
       <c r="AI75" s="5"/>
       <c r="AJ75" s="5"/>
       <c r="AK75" s="5"/>
-    </row>
-    <row r="76" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="5"/>
+    </row>
+    <row r="76" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>102</v>
       </c>
@@ -6680,28 +7091,28 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="5">
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5">
         <v>-21.481000000000002</v>
       </c>
-      <c r="M76" s="5">
+      <c r="Q76" s="5">
         <v>-13.481999999999999</v>
       </c>
-      <c r="N76" s="5">
+      <c r="R76" s="5">
         <v>-46.993000000000002</v>
       </c>
-      <c r="O76" s="5">
+      <c r="S76" s="5">
         <v>-78.599999999999994</v>
       </c>
-      <c r="P76" s="5">
+      <c r="T76" s="5">
         <v>-46.9</v>
       </c>
-      <c r="Q76" s="5">
+      <c r="U76" s="5">
         <v>-30.1</v>
       </c>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
@@ -6718,8 +7129,12 @@
       <c r="AI76" s="5"/>
       <c r="AJ76" s="5"/>
       <c r="AK76" s="5"/>
-    </row>
-    <row r="77" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL76" s="5"/>
+      <c r="AM76" s="5"/>
+      <c r="AN76" s="5"/>
+      <c r="AO76" s="5"/>
+    </row>
+    <row r="77" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>103</v>
       </c>
@@ -6732,28 +7147,28 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="5">
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5">
         <v>-12.353</v>
       </c>
-      <c r="M77" s="5">
+      <c r="Q77" s="5">
         <v>-61.305</v>
       </c>
-      <c r="N77" s="5">
+      <c r="R77" s="5">
         <v>-31.771000000000001</v>
       </c>
-      <c r="O77" s="5">
+      <c r="S77" s="5">
         <v>-273</v>
       </c>
-      <c r="P77" s="5">
+      <c r="T77" s="5">
         <v>-10</v>
       </c>
-      <c r="Q77" s="5">
+      <c r="U77" s="5">
         <v>-27.8</v>
       </c>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
@@ -6770,8 +7185,12 @@
       <c r="AI77" s="5"/>
       <c r="AJ77" s="5"/>
       <c r="AK77" s="5"/>
-    </row>
-    <row r="78" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL77" s="5"/>
+      <c r="AM77" s="5"/>
+      <c r="AN77" s="5"/>
+      <c r="AO77" s="5"/>
+    </row>
+    <row r="78" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>104</v>
       </c>
@@ -6784,28 +7203,28 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="5">
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5">
         <v>3.1539999999999999</v>
       </c>
-      <c r="M78" s="5">
+      <c r="Q78" s="5">
         <v>25.564</v>
       </c>
-      <c r="N78" s="5">
+      <c r="R78" s="5">
         <v>4.327</v>
       </c>
-      <c r="O78" s="5">
+      <c r="S78" s="5">
         <v>65.8</v>
       </c>
-      <c r="P78" s="5">
+      <c r="T78" s="5">
         <v>-44.3</v>
       </c>
-      <c r="Q78" s="5">
+      <c r="U78" s="5">
         <v>104</v>
       </c>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
@@ -6822,8 +7241,12 @@
       <c r="AI78" s="5"/>
       <c r="AJ78" s="5"/>
       <c r="AK78" s="5"/>
-    </row>
-    <row r="79" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL78" s="5"/>
+      <c r="AM78" s="5"/>
+      <c r="AN78" s="5"/>
+      <c r="AO78" s="5"/>
+    </row>
+    <row r="79" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>105</v>
       </c>
@@ -6836,34 +7259,34 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="5">
-        <f t="shared" ref="L79" si="47">+SUM(L76:L78)</f>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5">
+        <f t="shared" ref="P79" si="47">+SUM(P76:P78)</f>
         <v>-30.680000000000003</v>
       </c>
-      <c r="M79" s="5">
-        <f t="shared" ref="M79" si="48">+SUM(M76:M78)</f>
+      <c r="Q79" s="5">
+        <f t="shared" ref="Q79" si="48">+SUM(Q76:Q78)</f>
         <v>-49.223000000000006</v>
       </c>
-      <c r="N79" s="5">
-        <f t="shared" ref="N79:P79" si="49">+SUM(N76:N78)</f>
+      <c r="R79" s="5">
+        <f t="shared" ref="R79:T79" si="49">+SUM(R76:R78)</f>
         <v>-74.437000000000012</v>
       </c>
-      <c r="O79" s="5">
+      <c r="S79" s="5">
         <f t="shared" si="49"/>
         <v>-285.8</v>
       </c>
-      <c r="P79" s="5">
+      <c r="T79" s="5">
         <f t="shared" si="49"/>
         <v>-101.19999999999999</v>
       </c>
-      <c r="Q79" s="5">
-        <f>+SUM(Q76:Q78)</f>
+      <c r="U79" s="5">
+        <f>+SUM(U76:U78)</f>
         <v>46.099999999999994</v>
       </c>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -6880,8 +7303,12 @@
       <c r="AI79" s="5"/>
       <c r="AJ79" s="5"/>
       <c r="AK79" s="5"/>
-    </row>
-    <row r="80" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL79" s="5"/>
+      <c r="AM79" s="5"/>
+      <c r="AN79" s="5"/>
+      <c r="AO79" s="5"/>
+    </row>
+    <row r="80" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>106</v>
       </c>
@@ -6894,28 +7321,28 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="5">
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5">
         <v>-2.677</v>
       </c>
-      <c r="M80" s="5">
+      <c r="Q80" s="5">
         <v>-6.5110000000000001</v>
       </c>
-      <c r="N80" s="5">
+      <c r="R80" s="5">
         <v>8.0950000000000006</v>
       </c>
-      <c r="O80" s="5">
+      <c r="S80" s="5">
         <v>-67.599999999999994</v>
       </c>
-      <c r="P80" s="5">
+      <c r="T80" s="5">
         <v>93.4</v>
       </c>
-      <c r="Q80" s="5">
+      <c r="U80" s="5">
         <v>95.7</v>
       </c>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
@@ -6932,8 +7359,12 @@
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
       <c r="AK80" s="5"/>
-    </row>
-    <row r="81" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="5"/>
+      <c r="AO80" s="5"/>
+    </row>
+    <row r="81" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>107</v>
       </c>
@@ -6946,28 +7377,28 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="5">
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5">
         <v>1.099</v>
       </c>
-      <c r="M81" s="5">
+      <c r="Q81" s="5">
         <v>1.6739999999999999</v>
       </c>
-      <c r="N81" s="5">
+      <c r="R81" s="5">
         <v>4.3680000000000003</v>
       </c>
-      <c r="O81" s="5">
+      <c r="S81" s="5">
         <v>-7.4</v>
       </c>
-      <c r="P81" s="5">
+      <c r="T81" s="5">
         <v>4.8</v>
       </c>
-      <c r="Q81" s="5">
+      <c r="U81" s="5">
         <v>18</v>
       </c>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
@@ -6984,8 +7415,12 @@
       <c r="AI81" s="5"/>
       <c r="AJ81" s="5"/>
       <c r="AK81" s="5"/>
-    </row>
-    <row r="82" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL81" s="5"/>
+      <c r="AM81" s="5"/>
+      <c r="AN81" s="5"/>
+      <c r="AO81" s="5"/>
+    </row>
+    <row r="82" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>108</v>
       </c>
@@ -6998,28 +7433,28 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="5">
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5">
         <v>0</v>
       </c>
-      <c r="M82" s="5">
+      <c r="Q82" s="5">
         <v>0</v>
       </c>
-      <c r="N82" s="5">
+      <c r="R82" s="5">
         <v>0</v>
       </c>
-      <c r="O82" s="5">
+      <c r="S82" s="5">
         <v>5.6</v>
       </c>
-      <c r="P82" s="5">
+      <c r="T82" s="5">
         <v>11</v>
       </c>
-      <c r="Q82" s="5">
+      <c r="U82" s="5">
         <v>22.5</v>
       </c>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
@@ -7036,8 +7471,12 @@
       <c r="AI82" s="5"/>
       <c r="AJ82" s="5"/>
       <c r="AK82" s="5"/>
-    </row>
-    <row r="83" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL82" s="5"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="5"/>
+    </row>
+    <row r="83" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>109</v>
       </c>
@@ -7050,28 +7489,28 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="5">
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5">
         <v>-2.1629999999999998</v>
       </c>
-      <c r="M83" s="5">
+      <c r="Q83" s="5">
         <v>-5.1740000000000004</v>
       </c>
-      <c r="N83" s="5">
+      <c r="R83" s="5">
         <v>-4.407</v>
       </c>
-      <c r="O83" s="5">
+      <c r="S83" s="5">
         <v>-31</v>
       </c>
-      <c r="P83" s="5">
+      <c r="T83" s="5">
         <v>-28.6</v>
       </c>
-      <c r="Q83" s="5">
+      <c r="U83" s="5">
         <v>-41.2</v>
       </c>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
@@ -7088,8 +7527,12 @@
       <c r="AI83" s="5"/>
       <c r="AJ83" s="5"/>
       <c r="AK83" s="5"/>
-    </row>
-    <row r="84" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="5"/>
+    </row>
+    <row r="84" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>97</v>
       </c>
@@ -7102,34 +7545,34 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="7">
-        <f t="shared" ref="L84" si="50">+SUM(L68:L75)+L79+SUM(L80:L83)</f>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="7">
+        <f t="shared" ref="P84" si="50">+SUM(P68:P75)+P79+SUM(P80:P83)</f>
         <v>-5.2170000000000023</v>
       </c>
-      <c r="M84" s="7">
-        <f t="shared" ref="M84" si="51">+SUM(M68:M75)+M79+SUM(M80:M83)</f>
+      <c r="Q84" s="7">
+        <f t="shared" ref="Q84" si="51">+SUM(Q68:Q75)+Q79+SUM(Q80:Q83)</f>
         <v>-14.728000000000005</v>
       </c>
-      <c r="N84" s="7">
-        <f t="shared" ref="N84:O84" si="52">+SUM(N68:N75)+N79+SUM(N80:N83)</f>
+      <c r="R84" s="7">
+        <f t="shared" ref="R84:S84" si="52">+SUM(R68:R75)+R79+SUM(R80:R83)</f>
         <v>16.945999999999987</v>
       </c>
-      <c r="O84" s="7">
+      <c r="S84" s="7">
         <f t="shared" si="52"/>
         <v>-227.00000000000006</v>
       </c>
-      <c r="P84" s="7">
-        <f>+SUM(P68:P75)+P79+SUM(P80:P83)</f>
+      <c r="T84" s="7">
+        <f>+SUM(T68:T75)+T79+SUM(T80:T83)</f>
         <v>232.20000000000002</v>
       </c>
-      <c r="Q84" s="7">
-        <f>+SUM(Q68:Q75)+Q79+SUM(Q80:Q83)</f>
+      <c r="U84" s="7">
+        <f>+SUM(U68:U75)+U79+SUM(U80:U83)</f>
         <v>510.70000000000005</v>
       </c>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
@@ -7146,8 +7589,12 @@
       <c r="AI84" s="5"/>
       <c r="AJ84" s="5"/>
       <c r="AK84" s="5"/>
-    </row>
-    <row r="85" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL84" s="5"/>
+      <c r="AM84" s="5"/>
+      <c r="AN84" s="5"/>
+      <c r="AO84" s="5"/>
+    </row>
+    <row r="85" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>110</v>
       </c>
@@ -7160,28 +7607,28 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="5">
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5">
         <v>-7.4320000000000004</v>
       </c>
-      <c r="M85" s="5">
+      <c r="Q85" s="5">
         <v>-10.986000000000001</v>
       </c>
-      <c r="N85" s="5">
+      <c r="R85" s="5">
         <v>-24.638999999999999</v>
       </c>
-      <c r="O85" s="5">
+      <c r="S85" s="5">
         <v>-60.3</v>
       </c>
-      <c r="P85" s="5">
+      <c r="T85" s="5">
         <v>-42.8</v>
       </c>
-      <c r="Q85" s="5">
+      <c r="U85" s="5">
         <v>-60.5</v>
       </c>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
@@ -7198,8 +7645,12 @@
       <c r="AI85" s="5"/>
       <c r="AJ85" s="5"/>
       <c r="AK85" s="5"/>
-    </row>
-    <row r="86" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL85" s="5"/>
+      <c r="AM85" s="5"/>
+      <c r="AN85" s="5"/>
+      <c r="AO85" s="5"/>
+    </row>
+    <row r="86" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>111</v>
       </c>
@@ -7212,28 +7663,28 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="5">
-        <v>0</v>
-      </c>
-      <c r="M86" s="5">
-        <v>0</v>
-      </c>
-      <c r="N86" s="5">
-        <v>0</v>
-      </c>
-      <c r="O86" s="5">
-        <v>0</v>
-      </c>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
       <c r="P86" s="5">
         <v>0</v>
       </c>
       <c r="Q86" s="5">
+        <v>0</v>
+      </c>
+      <c r="R86" s="5">
+        <v>0</v>
+      </c>
+      <c r="S86" s="5">
+        <v>0</v>
+      </c>
+      <c r="T86" s="5">
+        <v>0</v>
+      </c>
+      <c r="U86" s="5">
         <v>0.1</v>
       </c>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
@@ -7250,8 +7701,12 @@
       <c r="AI86" s="5"/>
       <c r="AJ86" s="5"/>
       <c r="AK86" s="5"/>
-    </row>
-    <row r="87" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL86" s="5"/>
+      <c r="AM86" s="5"/>
+      <c r="AN86" s="5"/>
+      <c r="AO86" s="5"/>
+    </row>
+    <row r="87" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>112</v>
       </c>
@@ -7264,31 +7719,31 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="5">
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5">
         <f>-1.785-0.321</f>
         <v>-2.1059999999999999</v>
       </c>
-      <c r="M87" s="5">
+      <c r="Q87" s="5">
         <f>-7.612-0.026</f>
         <v>-7.6379999999999999</v>
       </c>
-      <c r="N87" s="5">
+      <c r="R87" s="5">
         <f>-11.6-0.2</f>
         <v>-11.799999999999999</v>
       </c>
-      <c r="O87" s="5">
+      <c r="S87" s="5">
         <v>-22.7</v>
       </c>
-      <c r="P87" s="5">
+      <c r="T87" s="5">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="Q87" s="5">
+      <c r="U87" s="5">
         <v>-4.5</v>
       </c>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
@@ -7305,8 +7760,12 @@
       <c r="AI87" s="5"/>
       <c r="AJ87" s="5"/>
       <c r="AK87" s="5"/>
-    </row>
-    <row r="88" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL87" s="5"/>
+      <c r="AM87" s="5"/>
+      <c r="AN87" s="5"/>
+      <c r="AO87" s="5"/>
+    </row>
+    <row r="88" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>113</v>
       </c>
@@ -7319,34 +7778,34 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="7">
-        <f t="shared" ref="L88" si="53">+SUM(L85:L87)</f>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="7">
+        <f t="shared" ref="P88" si="53">+SUM(P85:P87)</f>
         <v>-9.5380000000000003</v>
       </c>
-      <c r="M88" s="7">
-        <f t="shared" ref="M88" si="54">+SUM(M85:M87)</f>
+      <c r="Q88" s="7">
+        <f t="shared" ref="Q88" si="54">+SUM(Q85:Q87)</f>
         <v>-18.624000000000002</v>
       </c>
-      <c r="N88" s="7">
-        <f t="shared" ref="N88:P88" si="55">+SUM(N85:N87)</f>
+      <c r="R88" s="7">
+        <f t="shared" ref="R88:T88" si="55">+SUM(R85:R87)</f>
         <v>-36.439</v>
       </c>
-      <c r="O88" s="7">
+      <c r="S88" s="7">
         <f t="shared" si="55"/>
         <v>-83</v>
       </c>
-      <c r="P88" s="7">
+      <c r="T88" s="7">
         <f t="shared" si="55"/>
         <v>-47.199999999999996</v>
       </c>
-      <c r="Q88" s="7">
-        <f>+SUM(Q85:Q87)</f>
+      <c r="U88" s="7">
+        <f>+SUM(U85:U87)</f>
         <v>-64.900000000000006</v>
       </c>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
@@ -7363,8 +7822,12 @@
       <c r="AI88" s="5"/>
       <c r="AJ88" s="5"/>
       <c r="AK88" s="5"/>
-    </row>
-    <row r="89" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL88" s="5"/>
+      <c r="AM88" s="5"/>
+      <c r="AN88" s="5"/>
+      <c r="AO88" s="5"/>
+    </row>
+    <row r="89" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>116</v>
       </c>
@@ -7377,30 +7840,30 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="5">
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5">
         <f>3-1.2-2</f>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="M89" s="5">
+      <c r="Q89" s="5">
         <f>-(3+3.399)</f>
         <v>-6.399</v>
       </c>
-      <c r="N89" s="5">
+      <c r="R89" s="5">
         <v>-13.311</v>
       </c>
-      <c r="O89" s="5">
+      <c r="S89" s="5">
         <v>-15.4</v>
       </c>
-      <c r="P89" s="5">
+      <c r="T89" s="5">
         <v>-25.5</v>
       </c>
-      <c r="Q89" s="5">
+      <c r="U89" s="5">
         <v>-51.3</v>
       </c>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
@@ -7417,8 +7880,12 @@
       <c r="AI89" s="5"/>
       <c r="AJ89" s="5"/>
       <c r="AK89" s="5"/>
-    </row>
-    <row r="90" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL89" s="5"/>
+      <c r="AM89" s="5"/>
+      <c r="AN89" s="5"/>
+      <c r="AO89" s="5"/>
+    </row>
+    <row r="90" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>117</v>
       </c>
@@ -7431,30 +7898,30 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="5">
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5">
         <v>0</v>
       </c>
-      <c r="M90" s="5">
+      <c r="Q90" s="5">
         <f>133.266-1.476</f>
         <v>131.79</v>
       </c>
-      <c r="N90" s="5">
+      <c r="R90" s="5">
         <f>0.071+618.191-6.836</f>
         <v>611.42600000000004</v>
       </c>
-      <c r="O90" s="5">
+      <c r="S90" s="5">
         <v>0</v>
       </c>
-      <c r="P90" s="5">
+      <c r="T90" s="5">
         <v>0</v>
       </c>
-      <c r="Q90" s="5">
+      <c r="U90" s="5">
         <v>0.2</v>
       </c>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
@@ -7471,8 +7938,12 @@
       <c r="AI90" s="5"/>
       <c r="AJ90" s="5"/>
       <c r="AK90" s="5"/>
-    </row>
-    <row r="91" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL90" s="5"/>
+      <c r="AM90" s="5"/>
+      <c r="AN90" s="5"/>
+      <c r="AO90" s="5"/>
+    </row>
+    <row r="91" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>118</v>
       </c>
@@ -7485,29 +7956,29 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="5">
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5">
         <v>-0.49099999999999999</v>
       </c>
-      <c r="M91" s="5">
+      <c r="Q91" s="5">
         <v>-0.59499999999999997</v>
       </c>
-      <c r="N91" s="5">
+      <c r="R91" s="5">
         <f>0.5-2.764</f>
         <v>-2.2639999999999998</v>
       </c>
-      <c r="O91" s="5">
+      <c r="S91" s="5">
         <v>26.4</v>
       </c>
-      <c r="P91" s="5">
+      <c r="T91" s="5">
         <v>10.1</v>
       </c>
-      <c r="Q91" s="5">
+      <c r="U91" s="5">
         <v>10.9</v>
       </c>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5"/>
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
       <c r="X91" s="5"/>
@@ -7524,8 +7995,12 @@
       <c r="AI91" s="5"/>
       <c r="AJ91" s="5"/>
       <c r="AK91" s="5"/>
-    </row>
-    <row r="92" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL91" s="5"/>
+      <c r="AM91" s="5"/>
+      <c r="AN91" s="5"/>
+      <c r="AO91" s="5"/>
+    </row>
+    <row r="92" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>119</v>
       </c>
@@ -7538,28 +8013,28 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="5">
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5">
         <v>0</v>
       </c>
-      <c r="M92" s="5">
+      <c r="Q92" s="5">
         <v>0</v>
       </c>
-      <c r="N92" s="5">
+      <c r="R92" s="5">
         <v>0</v>
       </c>
-      <c r="O92" s="5">
+      <c r="S92" s="5">
         <v>-4.7</v>
       </c>
-      <c r="P92" s="5">
+      <c r="T92" s="5">
         <v>-6.5</v>
       </c>
-      <c r="Q92" s="5">
+      <c r="U92" s="5">
         <v>-15.3</v>
       </c>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
@@ -7576,8 +8051,12 @@
       <c r="AI92" s="5"/>
       <c r="AJ92" s="5"/>
       <c r="AK92" s="5"/>
-    </row>
-    <row r="93" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL92" s="5"/>
+      <c r="AM92" s="5"/>
+      <c r="AN92" s="5"/>
+      <c r="AO92" s="5"/>
+    </row>
+    <row r="93" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>120</v>
       </c>
@@ -7590,34 +8069,34 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="7">
-        <f t="shared" ref="L93" si="56">+SUM(L89:L92)</f>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="7">
+        <f t="shared" ref="P93" si="56">+SUM(P89:P92)</f>
         <v>-0.69099999999999995</v>
       </c>
-      <c r="M93" s="7">
-        <f>+SUM(M89:M92)</f>
+      <c r="Q93" s="7">
+        <f>+SUM(Q89:Q92)</f>
         <v>124.79599999999999</v>
       </c>
-      <c r="N93" s="7">
-        <f>+SUM(N89:N92)</f>
+      <c r="R93" s="7">
+        <f>+SUM(R89:R92)</f>
         <v>595.851</v>
       </c>
-      <c r="O93" s="7">
-        <f t="shared" ref="O93:P93" si="57">+SUM(O89:O92)</f>
+      <c r="S93" s="7">
+        <f t="shared" ref="S93:T93" si="57">+SUM(S89:S92)</f>
         <v>6.299999999999998</v>
       </c>
-      <c r="P93" s="7">
+      <c r="T93" s="7">
         <f t="shared" si="57"/>
         <v>-21.9</v>
       </c>
-      <c r="Q93" s="7">
-        <f>+SUM(Q89:Q92)</f>
+      <c r="U93" s="7">
+        <f>+SUM(U89:U92)</f>
         <v>-55.5</v>
       </c>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
       <c r="V93" s="5"/>
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
@@ -7634,8 +8113,12 @@
       <c r="AI93" s="5"/>
       <c r="AJ93" s="5"/>
       <c r="AK93" s="5"/>
-    </row>
-    <row r="94" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL93" s="5"/>
+      <c r="AM93" s="5"/>
+      <c r="AN93" s="5"/>
+      <c r="AO93" s="5"/>
+    </row>
+    <row r="94" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>114</v>
       </c>
@@ -7648,28 +8131,28 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="5">
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5">
         <v>-0.19500000000000001</v>
       </c>
-      <c r="M94" s="5">
+      <c r="Q94" s="5">
         <v>-0.96899999999999997</v>
       </c>
-      <c r="N94" s="5">
+      <c r="R94" s="5">
         <v>-13.868</v>
       </c>
-      <c r="O94" s="5">
+      <c r="S94" s="5">
         <v>21.5</v>
       </c>
-      <c r="P94" s="5">
+      <c r="T94" s="5">
         <v>-39.6</v>
       </c>
-      <c r="Q94" s="5">
+      <c r="U94" s="5">
         <v>39.4</v>
       </c>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
@@ -7686,8 +8169,12 @@
       <c r="AI94" s="5"/>
       <c r="AJ94" s="5"/>
       <c r="AK94" s="5"/>
-    </row>
-    <row r="95" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL94" s="5"/>
+      <c r="AM94" s="5"/>
+      <c r="AN94" s="5"/>
+      <c r="AO94" s="5"/>
+    </row>
+    <row r="95" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>115</v>
       </c>
@@ -7700,34 +8187,34 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="7">
-        <f t="shared" ref="L95" si="58">+SUM(L94,L93,L88,L84)</f>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="7">
+        <f t="shared" ref="P95" si="58">+SUM(P94,P93,P88,P84)</f>
         <v>-15.641000000000002</v>
       </c>
-      <c r="M95" s="7">
-        <f t="shared" ref="M95" si="59">+SUM(M94,M93,M88,M84)</f>
+      <c r="Q95" s="7">
+        <f t="shared" ref="Q95" si="59">+SUM(Q94,Q93,Q88,Q84)</f>
         <v>90.474999999999994</v>
       </c>
-      <c r="N95" s="7">
-        <f t="shared" ref="N95:P95" si="60">+SUM(N94,N93,N88,N84)</f>
+      <c r="R95" s="7">
+        <f t="shared" ref="R95:T95" si="60">+SUM(R94,R93,R88,R84)</f>
         <v>562.49</v>
       </c>
-      <c r="O95" s="7">
+      <c r="S95" s="7">
         <f t="shared" si="60"/>
         <v>-282.20000000000005</v>
       </c>
-      <c r="P95" s="7">
+      <c r="T95" s="7">
         <f t="shared" si="60"/>
         <v>123.50000000000003</v>
       </c>
-      <c r="Q95" s="7">
-        <f>+SUM(Q94,Q93,Q88,Q84)</f>
+      <c r="U95" s="7">
+        <f>+SUM(U94,U93,U88,U84)</f>
         <v>429.70000000000005</v>
       </c>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
@@ -7744,8 +8231,12 @@
       <c r="AI95" s="5"/>
       <c r="AJ95" s="5"/>
       <c r="AK95" s="5"/>
-    </row>
-    <row r="96" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL95" s="5"/>
+      <c r="AM95" s="5"/>
+      <c r="AN95" s="5"/>
+      <c r="AO95" s="5"/>
+    </row>
+    <row r="96" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>121</v>
       </c>
@@ -7758,54 +8249,58 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="5">
-        <f>+L97-L95</f>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5">
+        <f>+P97-P95</f>
         <v>15.776000000000021</v>
       </c>
-      <c r="M96" s="5">
-        <f>+M97-M95</f>
+      <c r="Q96" s="5">
+        <f>+Q97-Q95</f>
         <v>0.13500000000001933</v>
       </c>
-      <c r="N96" s="21">
-        <f>+N97-N95</f>
+      <c r="R96" s="21">
+        <f>+R97-R95</f>
         <v>90.610000000000014</v>
       </c>
-      <c r="O96" s="21">
+      <c r="S96" s="21">
         <v>653.1</v>
       </c>
-      <c r="P96" s="21">
+      <c r="T96" s="21">
         <v>371</v>
       </c>
-      <c r="Q96" s="5">
+      <c r="U96" s="5">
         <v>494.6</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>122</v>
       </c>
-      <c r="L97" s="5">
-        <f>+M96</f>
-        <v>0.13500000000001933</v>
-      </c>
-      <c r="M97" s="21">
-        <f>+N96</f>
-        <v>90.610000000000014</v>
-      </c>
-      <c r="N97" s="21">
-        <f>+O96</f>
-        <v>653.1</v>
-      </c>
-      <c r="O97" s="21">
-        <f>+P96</f>
-        <v>371</v>
-      </c>
       <c r="P97" s="5">
         <f>+Q96</f>
+        <v>0.13500000000001933</v>
+      </c>
+      <c r="Q97" s="21">
+        <f>+R96</f>
+        <v>90.610000000000014</v>
+      </c>
+      <c r="R97" s="21">
+        <f>+S96</f>
+        <v>653.1</v>
+      </c>
+      <c r="S97" s="21">
+        <f>+T96</f>
+        <v>371</v>
+      </c>
+      <c r="T97" s="5">
+        <f>+U96</f>
         <v>494.6</v>
       </c>
-      <c r="Q97" s="21">
-        <f>+Q95+Q96</f>
+      <c r="U97" s="21">
+        <f>+U95+U96</f>
         <v>924.30000000000007</v>
       </c>
     </row>
@@ -7814,6 +8309,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{97107C82-822A-4A0C-8065-5823F18768A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7841,7 +8337,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="77">
         <v>20</v>
@@ -7911,25 +8407,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="82">
-        <f>+Model!N24</f>
+        <f>+Model!R24</f>
         <v>264.17120799999998</v>
       </c>
       <c r="E5" s="82">
-        <f>+Model!O24</f>
+        <f>+Model!S24</f>
         <v>282.19649500000003</v>
       </c>
       <c r="F5" s="82">
-        <f>+Model!P24</f>
+        <f>+Model!T24</f>
         <v>284.78245600000002</v>
       </c>
       <c r="G5" s="82">
-        <f>+Model!Q24</f>
+        <f>+Model!U24</f>
         <v>289.63972999999999</v>
       </c>
       <c r="H5" s="39"/>
@@ -7937,7 +8433,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="81" t="s">
         <v>62</v>
@@ -7963,26 +8459,26 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="39">
-        <f>+Model!M53-Model!M39+Model!M42</f>
+        <f>+Model!Q53-Model!Q39+Model!Q42</f>
         <v>-66.230999999999995</v>
       </c>
       <c r="D7" s="39">
-        <f>+Model!N53-Model!N39+Model!N42</f>
+        <f>+Model!R53-Model!R39+Model!R42</f>
         <v>-602.93000000000006</v>
       </c>
       <c r="E7" s="39">
-        <f>+Model!O53-Model!O39+Model!O42</f>
+        <f>+Model!S53-Model!S39+Model!S42</f>
         <v>-306.8</v>
       </c>
       <c r="F7" s="39">
-        <f>+Model!P53-Model!P39+Model!P42</f>
+        <f>+Model!T53-Model!T39+Model!T42</f>
         <v>-445.6</v>
       </c>
       <c r="G7" s="39">
-        <f>+Model!Q53-Model!Q39+Model!Q42</f>
+        <f>+Model!U53-Model!U39+Model!U42</f>
         <v>-816.6</v>
       </c>
       <c r="H7" s="39"/>
@@ -8025,10 +8521,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -8040,140 +8536,140 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="39">
-        <f>+Model!N49+SUM(Model!N40,Model!N41,Model!N43)-Model!N51</f>
+        <f>+Model!R49+SUM(Model!R40,Model!R41,Model!R43)-Model!R51</f>
         <v>507.45099999999996</v>
       </c>
       <c r="E11" s="39">
-        <f>+Model!O49+SUM(Model!O40,Model!O41,Model!O43)-Model!O51</f>
+        <f>+Model!S49+SUM(Model!S40,Model!S41,Model!S43)-Model!S51</f>
         <v>867</v>
       </c>
       <c r="F11" s="39">
-        <f>+Model!P49+SUM(Model!P40,Model!P41,Model!P43)-Model!P51</f>
+        <f>+Model!T49+SUM(Model!T40,Model!T41,Model!T43)-Model!T51</f>
         <v>999.1</v>
       </c>
       <c r="G11" s="39">
-        <f>+Model!Q49+SUM(Model!Q40,Model!Q41,Model!Q43)-Model!Q51</f>
+        <f>+Model!U49+SUM(Model!U40,Model!U41,Model!U43)-Model!U51</f>
         <v>1229.4000000000001</v>
       </c>
       <c r="J11" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C12" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="39">
-        <f>+Model!N45+SUM(Model!N40:N41,Model!N43)-SUM(Model!N51:N54)+Model!N42+Model!N47</f>
+        <f>+Model!R45+SUM(Model!R40:R41,Model!R43)-SUM(Model!R51:R54)+Model!R42+Model!R47</f>
         <v>215.67400000000001</v>
       </c>
       <c r="E12" s="39">
-        <f>+Model!O45+SUM(Model!O40:O41,Model!O43)-SUM(Model!O51:O54)+Model!O42+Model!O47</f>
+        <f>+Model!S45+SUM(Model!S40:S41,Model!S43)-SUM(Model!S51:S54)+Model!S42+Model!S47</f>
         <v>604.20000000000005</v>
       </c>
       <c r="F12" s="39">
-        <f>+Model!P45+SUM(Model!P40:P41,Model!P43)-SUM(Model!P51:P54)+Model!P42+Model!P47</f>
+        <f>+Model!T45+SUM(Model!T40:T41,Model!T43)-SUM(Model!T51:T54)+Model!T42+Model!T47</f>
         <v>539.9</v>
       </c>
       <c r="G12" s="39">
-        <f>+Model!Q45+SUM(Model!Q40:Q41,Model!Q43)-SUM(Model!Q51:Q54)+Model!Q42+Model!Q47</f>
+        <f>+Model!U45+SUM(Model!U40:U41,Model!U43)-SUM(Model!U51:U54)+Model!U42+Model!U47</f>
         <v>444.7</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D13" s="39">
-        <f>+D12-Model!N47</f>
+        <f>+D12-Model!R47</f>
         <v>158.21</v>
       </c>
       <c r="E13" s="39">
-        <f>+E12-Model!O47</f>
+        <f>+E12-Model!S47</f>
         <v>533.90000000000009</v>
       </c>
       <c r="F13" s="39">
-        <f>+F12-Model!P47</f>
+        <f>+F12-Model!T47</f>
         <v>475.29999999999995</v>
       </c>
       <c r="G13" s="39">
-        <f>+G12-Model!Q47</f>
+        <f>+G12-Model!U47</f>
         <v>386.4</v>
       </c>
       <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="39">
-        <f>+D12+Model!N39+Model!N46</f>
+        <f>+D12+Model!R39+Model!R46</f>
         <v>1046.645</v>
       </c>
       <c r="E14" s="39">
-        <f>+E12+Model!O39+Model!O46</f>
+        <f>+E12+Model!S39+Model!S46</f>
         <v>1126.8</v>
       </c>
       <c r="F14" s="39">
-        <f>+F12+Model!P39+Model!P46</f>
+        <f>+F12+Model!T39+Model!T46</f>
         <v>1248.5</v>
       </c>
       <c r="G14" s="39">
-        <f>+G12+Model!Q39+Model!Q46</f>
+        <f>+G12+Model!U39+Model!U46</f>
         <v>1692.6</v>
       </c>
       <c r="J14" s="60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="39">
-        <f>+Model!N15*(1-Model!N37)</f>
+        <f>+Model!R15*(1-Model!R37)</f>
         <v>-150.47130325814533</v>
       </c>
       <c r="E15" s="39">
-        <f>+Model!O15*(1-Model!O37)</f>
+        <f>+Model!S15*(1-Model!S37)</f>
         <v>63.032991014120576</v>
       </c>
       <c r="F15" s="39">
-        <f>+Model!P15*(1-Model!P37)</f>
+        <f>+Model!T15*(1-Model!T37)</f>
         <v>207.69725036179449</v>
       </c>
       <c r="G15" s="39">
-        <f>+Model!Q15*(1-Model!Q37)</f>
+        <f>+Model!U15*(1-Model!U37)</f>
         <v>183.20922746781139</v>
       </c>
       <c r="J15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="81" t="s">
         <v>62</v>
@@ -8194,12 +8690,12 @@
         <v>444.09999999999991</v>
       </c>
       <c r="J16" s="60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="81" t="s">
         <v>62</v>
@@ -8208,24 +8704,24 @@
         <v>62</v>
       </c>
       <c r="E17" s="39">
-        <f>+E15-E16+SUM(Model!O69:O71)</f>
+        <f>+E15-E16+SUM(Model!S69:S71)</f>
         <v>72.377991014120596</v>
       </c>
       <c r="F17" s="39">
-        <f>+F15-F16+SUM(Model!P69:P71)</f>
+        <f>+F15-F16+SUM(Model!T69:T71)</f>
         <v>170.69725036179443</v>
       </c>
       <c r="G17" s="39">
-        <f>+G15-G16+SUM(Model!Q69:Q71)</f>
+        <f>+G15-G16+SUM(Model!U69:U71)</f>
         <v>-93.59077253218851</v>
       </c>
       <c r="J17" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C18" s="81" t="s">
         <v>62</v>
@@ -8246,12 +8742,12 @@
         <v>2.4240045446293106</v>
       </c>
       <c r="J18" s="60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19" s="81" t="s">
         <v>62</v>
@@ -8261,101 +8757,101 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="J19" s="60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C22" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="83">
-        <f>+Model!N11/Model!N65</f>
+        <f>+Model!R11/Model!R65</f>
         <v>0.86428691558352488</v>
       </c>
       <c r="E22" s="83">
-        <f>+Model!O11/Model!O65</f>
+        <f>+Model!S11/Model!S65</f>
         <v>1.2605466735430633</v>
       </c>
       <c r="F22" s="83">
-        <f>+Model!P11/Model!P65</f>
+        <f>+Model!T11/Model!T65</f>
         <v>1.6678455095393205</v>
       </c>
       <c r="G22" s="83">
-        <f>+Model!Q11/Model!Q65</f>
+        <f>+Model!U11/Model!U65</f>
         <v>1.6656847248167843</v>
       </c>
       <c r="J22" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="84">
-        <f>+Model!N21/Model!N65</f>
+        <f>+Model!R21/Model!R65</f>
         <v>-0.20301081014672356</v>
       </c>
       <c r="E23" s="84">
-        <f>+Model!O21/Model!O65</f>
+        <f>+Model!S21/Model!S65</f>
         <v>5.951521402784931E-2</v>
       </c>
       <c r="F23" s="84">
-        <f>+Model!P21/Model!P65</f>
+        <f>+Model!T21/Model!T65</f>
         <v>7.4080967892042757E-2</v>
       </c>
       <c r="G23" s="84">
-        <f>+Model!Q21/Model!Q65</f>
+        <f>+Model!U21/Model!U65</f>
         <v>0.17401925564017837</v>
       </c>
       <c r="J23" s="60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="84">
-        <f>+Model!N15/KPIs!D11</f>
+        <f>+Model!R15/KPIs!D11</f>
         <v>-0.27805640347540939</v>
       </c>
       <c r="E24" s="84">
-        <f>+Model!O15/KPIs!E11</f>
+        <f>+Model!S15/KPIs!E11</f>
         <v>9.8154555940022967E-2</v>
       </c>
       <c r="F24" s="84">
-        <f>+Model!P15/KPIs!F11</f>
+        <f>+Model!T15/KPIs!F11</f>
         <v>0.18046241617455705</v>
       </c>
       <c r="G24" s="84">
-        <f>+Model!Q15/KPIs!G11</f>
+        <f>+Model!U15/KPIs!G11</f>
         <v>0.1720351390922403</v>
       </c>
       <c r="J24" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" s="81" t="s">
         <v>62</v>
@@ -8377,12 +8873,12 @@
         <v>0.41198387107670653</v>
       </c>
       <c r="J25" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C26" s="81" t="s">
         <v>62</v>
@@ -8404,77 +8900,77 @@
         <v>0.47414396342601295</v>
       </c>
       <c r="J26" s="60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C27" s="81" t="s">
         <v>62</v>
       </c>
       <c r="J27" s="60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C29" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="79">
-        <f>1-(0/Model!N21)%</f>
+        <f>1-(0/Model!R21)%</f>
         <v>1</v>
       </c>
       <c r="E29" s="79">
-        <f>1-(0/Model!O21)%</f>
+        <f>1-(0/Model!S21)%</f>
         <v>1</v>
       </c>
       <c r="F29" s="79">
-        <f>1-(0/Model!P21)%</f>
+        <f>1-(0/Model!T21)%</f>
         <v>1</v>
       </c>
       <c r="G29" s="79">
-        <f>1-(0/Model!Q21)%</f>
+        <f>1-(0/Model!U21)%</f>
         <v>1</v>
       </c>
       <c r="J29" s="60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C30" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="79">
-        <f>-(Model!N85+Model!N79)/KPIs!D15</f>
+        <f>-(Model!R85+Model!R79)/KPIs!D15</f>
         <v>-0.65843784066937572</v>
       </c>
       <c r="E30" s="79">
-        <f>-(Model!O85+Model!O79)/KPIs!E15</f>
+        <f>-(Model!S85+Model!S79)/KPIs!E15</f>
         <v>5.4907754563394766</v>
       </c>
       <c r="F30" s="79">
-        <f>-(Model!P85+Model!P79)/KPIs!F15</f>
+        <f>-(Model!T85+Model!T79)/KPIs!F15</f>
         <v>0.69331683375279063</v>
       </c>
       <c r="G30" s="79">
-        <f>-(Model!Q85+Model!Q79)/KPIs!G15</f>
+        <f>-(Model!U85+Model!U79)/KPIs!G15</f>
         <v>7.8598661208426235E-2</v>
       </c>
       <c r="J30" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C31" s="81" t="s">
         <v>62</v>
@@ -8496,12 +8992,12 @@
         <v>0.17401925564017837</v>
       </c>
       <c r="J31" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C32" s="81" t="s">
         <v>62</v>
@@ -8523,53 +9019,53 @@
         <v>3.726708074534163E-2</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C35" s="81" t="s">
         <v>62</v>
       </c>
       <c r="J35" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C36" s="81" t="s">
         <v>62</v>
       </c>
       <c r="J36" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="81" t="s">
         <v>62</v>
       </c>
       <c r="J37" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C38" s="81" t="s">
         <v>62</v>
@@ -8579,12 +9075,12 @@
       <c r="G38" s="79"/>
       <c r="H38" s="79"/>
       <c r="J38" s="60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C39" s="81" t="s">
         <v>62</v>
@@ -8594,130 +9090,130 @@
       <c r="G39" s="79"/>
       <c r="H39" s="79"/>
       <c r="J39" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C42" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="6">
-        <f>+Model!N40/Model!N11*360</f>
+        <f>+Model!R40/Model!R11*360</f>
         <v>49.316919679823343</v>
       </c>
       <c r="E42" s="6">
-        <f>+Model!O40/Model!O11*360</f>
+        <f>+Model!S40/Model!S11*360</f>
         <v>51.432779641600533</v>
       </c>
       <c r="F42" s="6">
-        <f>+Model!P40/Model!P11*360</f>
+        <f>+Model!T40/Model!T11*360</f>
         <v>41.140561352603093</v>
       </c>
       <c r="G42" s="6">
-        <f>+Model!Q40/Model!Q11*360</f>
+        <f>+Model!U40/Model!U11*360</f>
         <v>38.215934089634644</v>
       </c>
       <c r="H42" s="6"/>
       <c r="J42" s="60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C43" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="6">
-        <f>+Model!N51/Model!N11*360</f>
+        <f>+Model!R51/Model!R11*360</f>
         <v>22.823682031465637</v>
       </c>
       <c r="E43" s="6">
-        <f>+Model!O51/Model!O11*360</f>
+        <f>+Model!S51/Model!S11*360</f>
         <v>32.697815236069061</v>
       </c>
       <c r="F43" s="6">
-        <f>+Model!P51/Model!P11*360</f>
+        <f>+Model!T51/Model!T11*360</f>
         <v>13.077395234640925</v>
       </c>
       <c r="G43" s="6">
-        <f>+Model!Q51/Model!Q11*360</f>
+        <f>+Model!U51/Model!U11*360</f>
         <v>25.855152482422461</v>
       </c>
       <c r="H43" s="6"/>
       <c r="J43" s="60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C44" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D44" s="84">
-        <f>+Model!N41/Model!N50</f>
+        <f>+Model!R41/Model!R50</f>
         <v>0.10851216109662157</v>
       </c>
       <c r="E44" s="84">
-        <f>+Model!O41/Model!O50</f>
+        <f>+Model!S41/Model!S50</f>
         <v>0.28621038923455361</v>
       </c>
       <c r="F44" s="84">
-        <f>+Model!P41/Model!P50</f>
+        <f>+Model!T41/Model!T50</f>
         <v>0.22379158819836784</v>
       </c>
       <c r="G44" s="84">
-        <f>+Model!Q41/Model!Q50</f>
+        <f>+Model!U41/Model!U50</f>
         <v>0.17638643440208701</v>
       </c>
       <c r="J44" s="60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D45" s="6">
-        <f>+Model!N12/Model!N41</f>
+        <f>+Model!R12/Model!R41</f>
         <v>2.1933550954701966</v>
       </c>
       <c r="E45" s="6">
-        <f>+Model!O12/Model!O41</f>
+        <f>+Model!S12/Model!S41</f>
         <v>1.3579373104145602</v>
       </c>
       <c r="F45" s="6">
-        <f>+Model!P12/Model!P41</f>
+        <f>+Model!T12/Model!T41</f>
         <v>2.0330995792426365</v>
       </c>
       <c r="G45" s="6">
-        <f>+Model!Q12/Model!Q41</f>
+        <f>+Model!U12/Model!U41</f>
         <v>2.1770038167938934</v>
       </c>
       <c r="J45" s="60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C46" s="81" t="s">
         <v>62</v>
@@ -8739,12 +9235,12 @@
         <v>165.36489151873764</v>
       </c>
       <c r="J46" s="60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C47" s="81" t="s">
         <v>62</v>
@@ -8766,20 +9262,20 @@
         <v>177.72567312594981</v>
       </c>
       <c r="J47" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
@@ -8787,35 +9283,35 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C51" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D51" s="6">
-        <f>+D6/Model!N21</f>
+        <f>+D6/Model!R21</f>
         <v>-51.030675538331387</v>
       </c>
       <c r="E51" s="6">
-        <f>+E6/Model!O21</f>
+        <f>+E6/Model!S21</f>
         <v>70.962392447183831</v>
       </c>
       <c r="F51" s="6">
-        <f>+F6/Model!P21</f>
+        <f>+F6/Model!T21</f>
         <v>81.377660102713648</v>
       </c>
       <c r="G51" s="6">
-        <f>+G6/Model!Q21</f>
+        <f>+G6/Model!U21</f>
         <v>56.283026724132881</v>
       </c>
       <c r="H51" s="6"/>
       <c r="J51" s="60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C52" s="81" t="s">
         <v>62</v>
@@ -8824,172 +9320,172 @@
         <v>62</v>
       </c>
       <c r="E52" s="6">
-        <f>+E51/((Model!O21/Model!N21-1)*100)</f>
+        <f>+E51/((Model!S21/Model!R21-1)*100)</f>
         <v>-0.52996047365119314</v>
       </c>
       <c r="F52" s="6">
-        <f>+F51/((Model!P21/Model!O21-1)*100)</f>
+        <f>+F51/((Model!T21/Model!S21-1)*100)</f>
         <v>2.1440598118386132</v>
       </c>
       <c r="G52" s="6">
-        <f>+G51/((Model!Q21/Model!P21-1)*100)</f>
+        <f>+G51/((Model!U21/Model!T21-1)*100)</f>
         <v>0.27553068433216271</v>
       </c>
       <c r="H52" s="6"/>
       <c r="J52" s="60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C53" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D53" s="6">
-        <f>+KPIs!D6/Model!N50</f>
+        <f>+KPIs!D6/Model!R50</f>
         <v>7.0240561061232079</v>
       </c>
       <c r="E53" s="6">
-        <f>+KPIs!E6/Model!O50</f>
+        <f>+KPIs!E6/Model!S50</f>
         <v>2.9623282044584718</v>
       </c>
       <c r="F53" s="6">
-        <f>+KPIs!F6/Model!P50</f>
+        <f>+KPIs!F6/Model!T50</f>
         <v>4.0663287785160076</v>
       </c>
       <c r="G53" s="6">
-        <f>+KPIs!G6/Model!Q50</f>
+        <f>+KPIs!G6/Model!U50</f>
         <v>5.7358196888769664</v>
       </c>
       <c r="H53" s="6"/>
       <c r="J53" s="60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C54" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D54" s="6">
-        <f>+D6/Model!N84</f>
+        <f>+D6/Model!R84</f>
         <v>512.53516916228057</v>
       </c>
       <c r="E54" s="6">
-        <f>+E6/Model!O84</f>
+        <f>+E6/Model!S84</f>
         <v>-18.037577287235678</v>
       </c>
       <c r="F54" s="6">
-        <f>+F6/Model!P84</f>
+        <f>+F6/Model!T84</f>
         <v>27.896906736330752</v>
       </c>
       <c r="G54" s="6">
-        <f>+G6/Model!Q84</f>
+        <f>+G6/Model!U84</f>
         <v>26.6922832829156</v>
       </c>
       <c r="H54" s="6"/>
       <c r="J54" s="60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C55" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="6">
-        <f>+D6/Model!N11</f>
+        <f>+D6/Model!R11</f>
         <v>11.98650424596191</v>
       </c>
       <c r="E55" s="6">
-        <f>+E6/Model!O11</f>
+        <f>+E6/Model!S11</f>
         <v>3.3504050766733493</v>
       </c>
       <c r="F55" s="6">
-        <f>+F6/Model!P11</f>
+        <f>+F6/Model!T11</f>
         <v>3.6145648926823286</v>
       </c>
       <c r="G55" s="6">
-        <f>+G6/Model!Q11</f>
+        <f>+G6/Model!U11</f>
         <v>5.8800625771405759</v>
       </c>
       <c r="H55" s="6"/>
       <c r="J55" s="60" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C57" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D57" s="6">
-        <f>+D8/(Model!N15+Model!N71)</f>
+        <f>+D8/(Model!R15+Model!R71)</f>
         <v>-73.686863316746766</v>
       </c>
       <c r="E57" s="6">
-        <f>+E8/(Model!O15+Model!O71)</f>
+        <f>+E8/(Model!S15+Model!S71)</f>
         <v>28.804030754391651</v>
       </c>
       <c r="F57" s="6">
-        <f>+F8/(Model!P15+Model!P71)</f>
+        <f>+F8/(Model!T15+Model!T71)</f>
         <v>24.60057807575857</v>
       </c>
       <c r="G57" s="6">
-        <f>+G8/(Model!Q15+Model!Q71)</f>
+        <f>+G8/(Model!U15+Model!U71)</f>
         <v>40.541439647532385</v>
       </c>
       <c r="H57" s="6"/>
       <c r="J57" s="60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C58" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D58" s="6">
-        <f>+D8/Model!N15</f>
+        <f>+D8/Model!R15</f>
         <v>-57.282005504068053</v>
       </c>
       <c r="E58" s="6">
-        <f>+E8/Model!O15</f>
+        <f>+E8/Model!S15</f>
         <v>44.509166206844931</v>
       </c>
       <c r="F58" s="6">
-        <f>+F8/Model!P15</f>
+        <f>+F8/Model!T15</f>
         <v>33.455694643239056</v>
       </c>
       <c r="G58" s="6">
-        <f>+G8/Model!Q15</f>
+        <f>+G8/Model!U15</f>
         <v>60.591721383380538</v>
       </c>
       <c r="H58" s="6"/>
       <c r="J58" s="60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C59" s="81" t="s">
         <v>62</v>
@@ -9011,35 +9507,35 @@
       </c>
       <c r="H59" s="6"/>
       <c r="J59" s="60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C60" s="81" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="6">
-        <f>+D8/Model!N11</f>
+        <f>+D8/Model!R11</f>
         <v>11.154417577455147</v>
       </c>
       <c r="E60" s="6">
-        <f>+E8/Model!O11</f>
+        <f>+E8/Model!S11</f>
         <v>3.0993617905265527</v>
       </c>
       <c r="F60" s="6">
-        <f>+F8/Model!P11</f>
+        <f>+F8/Model!T11</f>
         <v>3.3659180537782496</v>
       </c>
       <c r="G60" s="6">
-        <f>+G8/Model!Q11</f>
+        <f>+G8/Model!U11</f>
         <v>5.527821710988654</v>
       </c>
       <c r="H60" s="6"/>
       <c r="J60" s="60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -9072,7 +9568,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -9081,117 +9577,117 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="60" t="s">
         <v>185</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="60" t="s">
         <v>187</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8">
         <f>F6+F7</f>
         <v>0</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="60" t="s">
         <v>191</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="60" t="s">
         <v>193</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="60" t="s">
         <v>195</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="60" t="s">
         <v>197</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="60" t="s">
         <v>199</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="60" t="s">
         <v>202</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F20">
         <f>F18-F19</f>
@@ -9200,10 +9696,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
@@ -9213,51 +9709,51 @@
         <v>0</v>
       </c>
       <c r="H22" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="60" t="s">
         <v>206</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32" s="63"/>
       <c r="D32" s="63"/>
@@ -9269,25 +9765,25 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F37">
         <f>F35+F36</f>
@@ -9296,15 +9792,15 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41" s="63"/>
       <c r="D41" s="63"/>
@@ -9314,7 +9810,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -9325,7 +9821,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -9355,7 +9851,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -9388,43 +9884,43 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J3" s="26">
         <f>+Main!H3</f>
-        <v>31.067499999999995</v>
+        <v>45.908499999999997</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O3" s="26">
         <f>+J3</f>
-        <v>31.067499999999995</v>
+        <v>45.908499999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="27">
         <f ca="1">+TODAY()</f>
-        <v>45756</v>
+        <v>45790</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J4" s="28">
         <f ca="1">V62</f>
-        <v>101.91742012041421</v>
+        <v>101.17628824280125</v>
       </c>
       <c r="L4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O4" s="29">
         <f>+J15+O15+T15</f>
@@ -9433,20 +9929,20 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="27">
         <v>46022</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J5" s="31">
         <f ca="1">J4/J3-1</f>
-        <v>2.2805156552800909</v>
+        <v>1.2038683085441968</v>
       </c>
       <c r="L5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O5" s="31">
         <f>O4/O3-1</f>
@@ -9455,10 +9951,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>140</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -9487,25 +9983,25 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="G9" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="L9" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="Q9" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
@@ -9514,35 +10010,35 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>147</v>
-      </c>
       <c r="L10" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="N10" s="36" t="s">
+      <c r="O10" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="O10" s="36" t="s">
-        <v>147</v>
-      </c>
       <c r="Q10" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="S10" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="S10" s="36" t="s">
+      <c r="T10" s="36" t="s">
         <v>146</v>
-      </c>
-      <c r="T10" s="36" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -9553,179 +10049,179 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O11" s="79">
         <v>-0.02</v>
       </c>
       <c r="Q11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="30">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O12" s="79">
         <v>0.1</v>
       </c>
       <c r="Q12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="30">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J13" s="37"/>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O13" s="37"/>
       <c r="Q13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14" s="30">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J14" s="37"/>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O14" s="37"/>
       <c r="Q14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="30">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J15" s="37"/>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O15" s="37"/>
       <c r="Q15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T15" s="37"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18" s="37">
         <f>CHOOSE(E13,J18,O18,T18)</f>
         <v>0.1</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J18" s="37"/>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O18" s="37">
         <v>0.1</v>
       </c>
       <c r="Q18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T18" s="37"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E19" s="37">
         <f>CHOOSE(E14,J19,O19,T19)</f>
         <v>0.03</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J19" s="37"/>
       <c r="L19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O19" s="37">
         <v>0.03</v>
       </c>
       <c r="Q19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T19" s="37"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="37">
         <f>CHOOSE(E15,J20,O20,T20)</f>
         <v>0.15</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J20" s="37"/>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O20" s="37">
         <v>0.15</v>
       </c>
       <c r="Q20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T20" s="37"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -9797,29 +10293,29 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G25" s="85" t="s">
         <v>62</v>
       </c>
       <c r="H25" s="39">
-        <f>+Model!M11</f>
+        <f>+Model!Q11</f>
         <v>425.29</v>
       </c>
       <c r="I25" s="39">
-        <f>+Model!N11</f>
+        <f>+Model!R11</f>
         <v>724.6</v>
       </c>
       <c r="J25" s="39">
-        <f>+Model!O11</f>
+        <f>+Model!S11</f>
         <v>1222.0999999999999</v>
       </c>
       <c r="K25" s="39">
-        <f>+Model!P11</f>
+        <f>+Model!T11</f>
         <v>1792.1</v>
       </c>
       <c r="L25" s="39">
-        <f>+Model!Q11</f>
+        <f>+Model!U11</f>
         <v>2318.3000000000002</v>
       </c>
       <c r="M25" s="39">
@@ -9865,7 +10361,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="41"/>
       <c r="G26" s="85" t="s">
@@ -9933,7 +10429,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" s="41"/>
       <c r="I27" s="8"/>
@@ -9953,7 +10449,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="41"/>
       <c r="I28" s="8"/>
@@ -9997,7 +10493,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="41"/>
       <c r="I29" s="8"/>
@@ -10017,29 +10513,29 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G31" s="85" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="39">
-        <f>+Model!M15</f>
+        <f>+Model!Q15</f>
         <v>-17.09899999999999</v>
       </c>
       <c r="I31" s="39">
-        <f>+Model!N15</f>
+        <f>+Model!R15</f>
         <v>-141.09999999999997</v>
       </c>
       <c r="J31" s="39">
-        <f>+Model!O15</f>
+        <f>+Model!S15</f>
         <v>85.099999999999909</v>
       </c>
       <c r="K31" s="39">
-        <f>+Model!P15</f>
+        <f>+Model!T15</f>
         <v>180.29999999999995</v>
       </c>
       <c r="L31" s="39">
-        <f>+Model!Q15</f>
+        <f>+Model!U15</f>
         <v>211.50000000000023</v>
       </c>
       <c r="M31" s="39">
@@ -10085,7 +10581,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G32" s="85" t="s">
         <v>62</v>
@@ -10153,7 +10649,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M33" s="44"/>
       <c r="N33" s="44"/>
@@ -10168,7 +10664,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M34" s="44">
         <v>0.1</v>
@@ -10203,7 +10699,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M35" s="44"/>
       <c r="N35" s="44"/>
@@ -10218,29 +10714,29 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G37" s="85" t="s">
         <v>62</v>
       </c>
       <c r="H37" s="39">
-        <f>+Model!M20</f>
+        <f>+Model!Q20</f>
         <v>3.0830000000000002</v>
       </c>
       <c r="I37" s="39">
-        <f>+Model!N20</f>
+        <f>+Model!R20</f>
         <v>10.6</v>
       </c>
       <c r="J37" s="39">
-        <f>+Model!O20</f>
+        <f>+Model!S20</f>
         <v>20.2</v>
       </c>
       <c r="K37" s="39">
-        <f>+Model!P20</f>
+        <f>+Model!T20</f>
         <v>-10.5</v>
       </c>
       <c r="L37" s="39">
-        <f>+Model!Q20</f>
+        <f>+Model!U20</f>
         <v>37.4</v>
       </c>
       <c r="M37" s="39">
@@ -10286,7 +10782,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G38" s="85" t="s">
         <v>62</v>
@@ -10347,7 +10843,7 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="46"/>
       <c r="D40" s="46"/>
@@ -10419,29 +10915,29 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G42" s="85" t="s">
         <v>62</v>
       </c>
       <c r="H42" s="39">
-        <f>+Model!M71</f>
+        <f>+Model!Q71</f>
         <v>12.090999999999999</v>
       </c>
       <c r="I42" s="39">
-        <f>+Model!N71</f>
+        <f>+Model!R71</f>
         <v>31.413</v>
       </c>
       <c r="J42" s="39">
-        <f>+Model!O71</f>
+        <f>+Model!S71</f>
         <v>46.4</v>
       </c>
       <c r="K42" s="39">
-        <f>+Model!P71</f>
+        <f>+Model!T71</f>
         <v>64.900000000000006</v>
       </c>
       <c r="L42" s="39">
-        <f>+Model!Q71</f>
+        <f>+Model!U71</f>
         <v>104.6</v>
       </c>
       <c r="M42" s="39">
@@ -10487,7 +10983,7 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
@@ -10555,23 +11051,23 @@
         <v>62</v>
       </c>
       <c r="H45" s="39">
-        <f>+SUM(Model!M85:M86)</f>
+        <f>+SUM(Model!Q85:Q86)</f>
         <v>-10.986000000000001</v>
       </c>
       <c r="I45" s="39">
-        <f>+SUM(Model!N85:N86)</f>
+        <f>+SUM(Model!R85:R86)</f>
         <v>-24.638999999999999</v>
       </c>
       <c r="J45" s="39">
-        <f>+SUM(Model!O85:O86)</f>
+        <f>+SUM(Model!S85:S86)</f>
         <v>-60.3</v>
       </c>
       <c r="K45" s="39">
-        <f>+SUM(Model!P85:P86)</f>
+        <f>+SUM(Model!T85:T86)</f>
         <v>-42.8</v>
       </c>
       <c r="L45" s="39">
-        <f>+SUM(Model!Q85:Q86)</f>
+        <f>+SUM(Model!U85:U86)</f>
         <v>-60.4</v>
       </c>
       <c r="M45" s="39">
@@ -10617,7 +11113,7 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G46" s="85" t="s">
         <v>62</v>
@@ -10684,23 +11180,23 @@
         <v>62</v>
       </c>
       <c r="H48" s="39">
-        <f>+Model!M79</f>
+        <f>+Model!Q79</f>
         <v>-49.223000000000006</v>
       </c>
       <c r="I48" s="39">
-        <f>+Model!N79</f>
+        <f>+Model!R79</f>
         <v>-74.437000000000012</v>
       </c>
       <c r="J48" s="39">
-        <f>+Model!O79</f>
+        <f>+Model!S79</f>
         <v>-285.8</v>
       </c>
       <c r="K48" s="39">
-        <f>+Model!P79</f>
+        <f>+Model!T79</f>
         <v>-101.19999999999999</v>
       </c>
       <c r="L48" s="39">
-        <f>+Model!Q79</f>
+        <f>+Model!U79</f>
         <v>46.099999999999994</v>
       </c>
       <c r="M48" s="39">
@@ -10746,7 +11242,7 @@
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G49" s="85" t="s">
         <v>62</v>
@@ -10807,7 +11303,7 @@
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C51" s="52"/>
       <c r="D51" s="52"/>
@@ -10879,7 +11375,7 @@
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
@@ -10893,93 +11389,93 @@
       <c r="L52" s="57"/>
       <c r="M52" s="57">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>81.823871537781386</v>
+        <v>71.849357575872546</v>
       </c>
       <c r="N52" s="57">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>254.13344526507476</v>
+        <v>256.43135862514328</v>
       </c>
       <c r="O52" s="57">
         <f t="shared" ref="O52:U52" ca="1" si="16">O51/(1+$E$18)^O53</f>
-        <v>287.63285395910736</v>
+        <v>290.23367408027582</v>
       </c>
       <c r="P52" s="57">
         <f t="shared" ca="1" si="16"/>
-        <v>485.5142553469687</v>
+        <v>489.90434927066235</v>
       </c>
       <c r="Q52" s="57">
         <f t="shared" ca="1" si="16"/>
-        <v>726.31220252018534</v>
+        <v>732.87962819692405</v>
       </c>
       <c r="R52" s="57">
         <f t="shared" ca="1" si="16"/>
-        <v>1015.1184827625177</v>
+        <v>1024.2973388597911</v>
       </c>
       <c r="S52" s="57">
         <f t="shared" ca="1" si="16"/>
-        <v>1273.0468133607687</v>
+        <v>1284.5578967499034</v>
       </c>
       <c r="T52" s="57">
         <f t="shared" ca="1" si="16"/>
-        <v>1552.3258217762941</v>
+        <v>1566.3621885414727</v>
       </c>
       <c r="U52" s="57">
         <f t="shared" ca="1" si="16"/>
-        <v>1552.3258217762941</v>
+        <v>1566.362188541473</v>
       </c>
       <c r="V52" s="58">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>1481.7655571500984</v>
+        <v>1495.1639072441326</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M53" s="6">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.72777777777777775</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="N53" s="6">
         <f ca="1">M53+1</f>
-        <v>1.7277777777777779</v>
+        <v>1.6333333333333333</v>
       </c>
       <c r="O53" s="6">
         <f ca="1">N53+1</f>
-        <v>2.7277777777777779</v>
+        <v>2.6333333333333333</v>
       </c>
       <c r="P53" s="6">
         <f t="shared" ref="P53:V53" ca="1" si="17">O53+1</f>
-        <v>3.7277777777777779</v>
+        <v>3.6333333333333333</v>
       </c>
       <c r="Q53" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.7277777777777779</v>
+        <v>4.6333333333333329</v>
       </c>
       <c r="R53" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.7277777777777779</v>
+        <v>5.6333333333333329</v>
       </c>
       <c r="S53" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>6.7277777777777779</v>
+        <v>6.6333333333333329</v>
       </c>
       <c r="T53" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>7.7277777777777779</v>
+        <v>7.6333333333333329</v>
       </c>
       <c r="U53" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>8.7277777777777779</v>
+        <v>8.6333333333333329</v>
       </c>
       <c r="V53" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>9.7277777777777779</v>
+        <v>9.6333333333333329</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N54" s="59"/>
       <c r="O54" s="59"/>
@@ -10987,12 +11483,12 @@
       <c r="Q54" s="59"/>
       <c r="V54" s="39">
         <f ca="1">SUM(M52:V52)</f>
-        <v>8709.9991254550896</v>
+        <v>8778.0418876856511</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N55" s="59"/>
       <c r="O55" s="59"/>
@@ -11003,12 +11499,12 @@
         <v>50301.184352938479</v>
       </c>
       <c r="X55" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -11031,12 +11527,12 @@
       <c r="U56" s="61"/>
       <c r="V56" s="62">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>19903.037803375362</v>
+        <v>20083.004105829652</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C57" s="63"/>
       <c r="D57" s="63"/>
@@ -11059,12 +11555,12 @@
       <c r="U57" s="64"/>
       <c r="V57" s="65">
         <f ca="1">V54+V56</f>
-        <v>28613.03692883045</v>
+        <v>28861.045993515305</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N58" s="59"/>
       <c r="O58" s="59"/>
@@ -11072,12 +11568,12 @@
       <c r="Q58" s="59"/>
       <c r="V58" s="66">
         <f>+Main!H6</f>
-        <v>924.3</v>
+        <v>871.8</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -11100,12 +11596,12 @@
       <c r="U59" s="61"/>
       <c r="V59" s="62">
         <f>+Main!H7</f>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N60" s="59"/>
       <c r="O60" s="59"/>
@@ -11113,12 +11609,12 @@
       <c r="Q60" s="59"/>
       <c r="V60" s="66">
         <f ca="1">V57+V58-V59</f>
-        <v>29484.336928830449</v>
+        <v>29678.845993515304</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -11141,24 +11637,24 @@
       <c r="U61" s="61"/>
       <c r="V61" s="62">
         <f>+Main!H4</f>
-        <v>289.29634299999998</v>
+        <v>293.33796000000001</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V62" s="66">
         <f ca="1">V60/V61</f>
-        <v>101.91742012041421</v>
+        <v>101.17628824280125</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
@@ -11183,35 +11679,35 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B68" s="67"/>
-      <c r="C68" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="89"/>
+      <c r="C68" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="91"/>
       <c r="M68" s="67"/>
-      <c r="N68" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="O68" s="90"/>
-      <c r="P68" s="90"/>
-      <c r="Q68" s="90"/>
-      <c r="R68" s="90"/>
-      <c r="S68" s="90"/>
-      <c r="T68" s="90"/>
-      <c r="U68" s="91"/>
+      <c r="N68" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="O68" s="92"/>
+      <c r="P68" s="92"/>
+      <c r="Q68" s="92"/>
+      <c r="R68" s="92"/>
+      <c r="S68" s="92"/>
+      <c r="T68" s="92"/>
+      <c r="U68" s="93"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B69" s="92" t="s">
-        <v>150</v>
+      <c r="B69" s="94" t="s">
+        <v>149</v>
       </c>
       <c r="C69" s="68">
         <f ca="1">+J4</f>
-        <v>101.91742012041421</v>
+        <v>101.17628824280125</v>
       </c>
       <c r="D69" s="69"/>
       <c r="E69" s="69"/>
@@ -11220,12 +11716,12 @@
       <c r="H69" s="69"/>
       <c r="I69" s="69"/>
       <c r="J69" s="69"/>
-      <c r="M69" s="92" t="s">
-        <v>150</v>
+      <c r="M69" s="94" t="s">
+        <v>149</v>
       </c>
       <c r="N69" s="68">
         <f ca="1">+J4</f>
-        <v>101.91742012041421</v>
+        <v>101.17628824280125</v>
       </c>
       <c r="O69" s="69"/>
       <c r="P69" s="69"/>
@@ -11236,7 +11732,7 @@
       <c r="U69" s="69"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="92"/>
+      <c r="B70" s="94"/>
       <c r="C70" s="70"/>
       <c r="D70" s="71"/>
       <c r="E70" s="71"/>
@@ -11245,7 +11741,7 @@
       <c r="H70" s="71"/>
       <c r="I70" s="71"/>
       <c r="J70" s="71"/>
-      <c r="M70" s="92"/>
+      <c r="M70" s="94"/>
       <c r="N70" s="70"/>
       <c r="O70" s="71"/>
       <c r="P70" s="71"/>
@@ -11256,7 +11752,7 @@
       <c r="U70" s="71"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="92"/>
+      <c r="B71" s="94"/>
       <c r="C71" s="70"/>
       <c r="D71" s="71"/>
       <c r="E71" s="71"/>
@@ -11265,7 +11761,7 @@
       <c r="H71" s="71"/>
       <c r="I71" s="71"/>
       <c r="J71" s="71"/>
-      <c r="M71" s="92"/>
+      <c r="M71" s="94"/>
       <c r="N71" s="70"/>
       <c r="O71" s="71"/>
       <c r="P71" s="71"/>
@@ -11276,7 +11772,7 @@
       <c r="U71" s="71"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="92"/>
+      <c r="B72" s="94"/>
       <c r="C72" s="70"/>
       <c r="D72" s="72"/>
       <c r="E72" s="72"/>
@@ -11285,7 +11781,7 @@
       <c r="H72" s="72"/>
       <c r="I72" s="72"/>
       <c r="J72" s="72"/>
-      <c r="M72" s="92"/>
+      <c r="M72" s="94"/>
       <c r="N72" s="70"/>
       <c r="O72" s="72"/>
       <c r="P72" s="72"/>
@@ -11296,7 +11792,7 @@
       <c r="U72" s="72"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="92"/>
+      <c r="B73" s="94"/>
       <c r="C73" s="70"/>
       <c r="D73" s="71"/>
       <c r="E73" s="71"/>
@@ -11305,7 +11801,7 @@
       <c r="H73" s="71"/>
       <c r="I73" s="71"/>
       <c r="J73" s="71"/>
-      <c r="M73" s="92"/>
+      <c r="M73" s="94"/>
       <c r="N73" s="70"/>
       <c r="O73" s="71"/>
       <c r="P73" s="71"/>
@@ -11316,7 +11812,7 @@
       <c r="U73" s="71"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="92"/>
+      <c r="B74" s="94"/>
       <c r="C74" s="70"/>
       <c r="D74" s="71"/>
       <c r="E74" s="71"/>
@@ -11325,7 +11821,7 @@
       <c r="H74" s="71"/>
       <c r="I74" s="71"/>
       <c r="J74" s="71"/>
-      <c r="M74" s="92"/>
+      <c r="M74" s="94"/>
       <c r="N74" s="70"/>
       <c r="O74" s="71"/>
       <c r="P74" s="71"/>
@@ -11336,7 +11832,7 @@
       <c r="U74" s="71"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="92"/>
+      <c r="B75" s="94"/>
       <c r="C75" s="70"/>
       <c r="D75" s="71"/>
       <c r="E75" s="71"/>
@@ -11345,7 +11841,7 @@
       <c r="H75" s="71"/>
       <c r="I75" s="71"/>
       <c r="J75" s="71"/>
-      <c r="M75" s="92"/>
+      <c r="M75" s="94"/>
       <c r="N75" s="70"/>
       <c r="O75" s="71"/>
       <c r="P75" s="71"/>
@@ -11356,7 +11852,7 @@
       <c r="U75" s="71"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B76" s="93"/>
+      <c r="B76" s="95"/>
       <c r="C76" s="70"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
@@ -11365,7 +11861,7 @@
       <c r="H76" s="71"/>
       <c r="I76" s="71"/>
       <c r="J76" s="71"/>
-      <c r="M76" s="93"/>
+      <c r="M76" s="95"/>
       <c r="N76" s="70"/>
       <c r="O76" s="71"/>
       <c r="P76" s="71"/>

--- a/ONON.xlsx
+++ b/ONON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD1B488-AC20-49B0-A7F6-9E039CCD2C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3160397C-6D85-4705-972E-39B946DEE928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{3D17FBD5-4686-4900-BBF2-80842DD395C0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{3D17FBD5-4686-4900-BBF2-80842DD395C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1992,7 +1992,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,7 +2018,7 @@
         <v>19</v>
       </c>
       <c r="H2">
-        <v>54.01</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2027,10 +2027,10 @@
       </c>
       <c r="H3" s="5">
         <f>+H2*H10</f>
-        <v>45.908499999999997</v>
+        <v>41.989999999999995</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -2042,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="5">
-        <v>293.33796000000001</v>
+        <v>293.04771499999998</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -2055,10 +2055,10 @@
       </c>
       <c r="H5" s="5">
         <f>+H3*H4</f>
-        <v>13466.70573666</v>
+        <v>12305.073552849997</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2066,10 +2066,11 @@
         <v>5</v>
       </c>
       <c r="H6" s="5">
-        <v>871.8</v>
+        <f>846.6+51.8</f>
+        <v>898.4</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2083,8 +2084,8 @@
         <v>6</v>
       </c>
       <c r="H7" s="5">
-        <f>0.8+53.2</f>
-        <v>54</v>
+        <f>52.8+0.7</f>
+        <v>53.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2099,7 +2100,7 @@
       </c>
       <c r="H8" s="5">
         <f>+H5-H6+H7</f>
-        <v>12648.905736660001</v>
+        <v>11460.173552849998</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2194,10 +2195,10 @@
   <dimension ref="A1:AS97"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M62" sqref="M62"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2301,9 @@
       <c r="K3" s="5">
         <v>168.6</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5">
+        <v>197.8</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -2383,7 +2386,9 @@
       <c r="K4" s="5">
         <v>437.4</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <v>432.3</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -2463,7 +2468,9 @@
       <c r="K5" s="5">
         <v>120.6</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5">
+        <v>119.2</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -2544,7 +2551,9 @@
       <c r="K6" s="5">
         <v>680.9</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5">
+        <v>704.9</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -2624,7 +2633,9 @@
       <c r="K7" s="5">
         <v>38.1</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5">
+        <v>36.700000000000003</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -2704,7 +2715,9 @@
       <c r="K8" s="5">
         <v>7.6</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5">
+        <v>7.7</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -2784,7 +2797,9 @@
       <c r="K9" s="5">
         <v>449.7</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <v>441</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -2864,7 +2879,9 @@
       <c r="K10" s="5">
         <v>276.89999999999998</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <v>308.3</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -2940,7 +2957,9 @@
       <c r="K11" s="7">
         <v>726.6</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7">
+        <v>749.2</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="5"/>
@@ -3016,7 +3035,9 @@
       <c r="K12" s="5">
         <v>291.3</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>288.39999999999998</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -3092,14 +3113,17 @@
         <v>385.29999999999995</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" ref="J13:K13" si="3">+J11-J12</f>
+        <f t="shared" ref="J13:L13" si="3">+J11-J12</f>
         <v>376.80000000000007</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="3"/>
         <v>435.3</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5">
+        <f t="shared" si="3"/>
+        <v>460.80000000000007</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -3181,7 +3205,9 @@
       <c r="K14" s="5">
         <v>358.2</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <v>368</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -3257,14 +3283,17 @@
         <v>72.599999999999966</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" ref="J15:K15" si="6">+J13-J14</f>
+        <f t="shared" ref="J15:L15" si="6">+J13-J14</f>
         <v>53.000000000000114</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="6"/>
         <v>77.100000000000023</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5">
+        <f t="shared" si="6"/>
+        <v>92.800000000000068</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -3346,7 +3375,9 @@
       <c r="K16" s="5">
         <v>7.3</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5">
+        <v>7.5</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -3422,7 +3453,9 @@
       <c r="K17" s="5">
         <v>5.9</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5">
+        <v>7.7</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -3498,7 +3531,9 @@
       <c r="K18" s="5">
         <v>14.5</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5">
+        <v>139.9</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -3574,14 +3609,17 @@
         <v>29.499999999999964</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ref="J19:K19" si="9">+J15+J16-J17-J18</f>
+        <f t="shared" ref="J19:L19" si="9">+J15+J16-J17-J18</f>
         <v>-43.899999999999892</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="9"/>
         <v>64.000000000000014</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5">
+        <f t="shared" si="9"/>
+        <v>-47.29999999999994</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -3663,7 +3701,9 @@
       <c r="K20" s="5">
         <v>7.2</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5">
+        <v>-6.4</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -3746,7 +3786,10 @@
         <f>+K19-K20</f>
         <v>56.800000000000011</v>
       </c>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5">
+        <f>+L19-L20</f>
+        <v>-40.899999999999942</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -3857,14 +3900,17 @@
         <v>0.10547035930930765</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" ref="J23:K23" si="14">+J21/J24</f>
+        <f t="shared" ref="J23:L23" si="14">+J21/J24</f>
         <v>0.30865931272619346</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="14"/>
         <v>0.19363330951098184</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6">
+        <f t="shared" si="14"/>
+        <v>-0.13956771510741842</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="5"/>
@@ -3944,7 +3990,9 @@
       <c r="K24" s="5">
         <v>293.33796000000001</v>
       </c>
-      <c r="L24" s="5"/>
+      <c r="L24" s="5">
+        <v>293.04771499999998</v>
+      </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -4048,14 +4096,17 @@
         <v>0.15138888888888902</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" ref="J26:K34" si="18">+J3/F3-1</f>
+        <f t="shared" ref="J26:L34" si="18">+J3/F3-1</f>
         <v>0.31372549019607776</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" si="18"/>
         <v>0.33597464342313788</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="8">
+        <f t="shared" si="18"/>
+        <v>0.42919075144508678</v>
+      </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="5"/>
@@ -4131,7 +4182,10 @@
         <f t="shared" si="18"/>
         <v>0.32706310679611628</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="8">
+        <f t="shared" si="18"/>
+        <v>0.16837837837837832</v>
+      </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="5"/>
@@ -4207,7 +4261,10 @@
         <f t="shared" si="18"/>
         <v>1.3015267175572518</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="8">
+        <f t="shared" si="18"/>
+        <v>1.0135135135135136</v>
+      </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="5"/>
@@ -4283,7 +4340,10 @@
         <f t="shared" si="18"/>
         <v>0.40478646585516809</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="8">
+        <f t="shared" si="18"/>
+        <v>0.29935483870967738</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="5"/>
@@ -4359,7 +4419,10 @@
         <f t="shared" si="18"/>
         <v>0.93401015228426409</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="8">
+        <f t="shared" si="18"/>
+        <v>0.67579908675799105</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="5"/>
@@ -4435,7 +4498,10 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="8">
+        <f t="shared" si="18"/>
+        <v>1.3333333333333335</v>
+      </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="5"/>
@@ -4511,7 +4577,10 @@
         <f t="shared" si="18"/>
         <v>0.41548630783758256</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="8">
+        <f t="shared" si="18"/>
+        <v>0.23115577889447247</v>
+      </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="5"/>
@@ -4587,7 +4656,10 @@
         <f t="shared" si="18"/>
         <v>0.45354330708661394</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="8">
+        <f t="shared" si="18"/>
+        <v>0.47230181470869148</v>
+      </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="5"/>
@@ -4663,7 +4735,10 @@
         <f t="shared" si="18"/>
         <v>0.4297520661157026</v>
       </c>
-      <c r="L34" s="88"/>
+      <c r="L34" s="88">
+        <f t="shared" si="18"/>
+        <v>0.31971111502554161</v>
+      </c>
       <c r="M34" s="88"/>
       <c r="N34" s="88"/>
       <c r="O34" s="7"/>
@@ -4751,7 +4826,10 @@
         <f>+K13/K11</f>
         <v>0.59909165978530143</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="8">
+        <f>+L13/L11</f>
+        <v>0.61505605979711697</v>
+      </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="5"/>
@@ -4840,7 +4918,10 @@
         <f>+K15/K11</f>
         <v>0.10611065235342695</v>
       </c>
-      <c r="L36" s="8"/>
+      <c r="L36" s="8">
+        <f>+L15/L11</f>
+        <v>0.12386545648691946</v>
+      </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="5"/>
@@ -4929,7 +5010,10 @@
         <f>+K20/K19</f>
         <v>0.11249999999999998</v>
       </c>
-      <c r="L37" s="8"/>
+      <c r="L37" s="8">
+        <f>+L20/L19</f>
+        <v>0.13530655391120525</v>
+      </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="5"/>
@@ -9894,14 +9978,14 @@
       </c>
       <c r="J3" s="26">
         <f>+Main!H3</f>
-        <v>45.908499999999997</v>
+        <v>41.989999999999995</v>
       </c>
       <c r="L3" t="s">
         <v>132</v>
       </c>
       <c r="O3" s="26">
         <f>+J3</f>
-        <v>45.908499999999997</v>
+        <v>41.989999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -9910,14 +9994,14 @@
       </c>
       <c r="E4" s="27">
         <f ca="1">+TODAY()</f>
-        <v>45790</v>
+        <v>45881</v>
       </c>
       <c r="G4" t="s">
         <v>134</v>
       </c>
       <c r="J4" s="28">
         <f ca="1">V62</f>
-        <v>101.17628824280125</v>
+        <v>103.61914246816085</v>
       </c>
       <c r="L4" t="s">
         <v>135</v>
@@ -9939,7 +10023,7 @@
       </c>
       <c r="J5" s="31">
         <f ca="1">J4/J3-1</f>
-        <v>1.2038683085441968</v>
+        <v>1.4677099897156669</v>
       </c>
       <c r="L5" t="s">
         <v>137</v>
@@ -11389,43 +11473,43 @@
       <c r="L52" s="57"/>
       <c r="M52" s="57">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>71.849357575872546</v>
+        <v>44.847272369782843</v>
       </c>
       <c r="N52" s="57">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>256.43135862514328</v>
+        <v>262.54534646484046</v>
       </c>
       <c r="O52" s="57">
         <f t="shared" ref="O52:U52" ca="1" si="16">O51/(1+$E$18)^O53</f>
-        <v>290.23367408027582</v>
+        <v>297.15359668066037</v>
       </c>
       <c r="P52" s="57">
         <f t="shared" ca="1" si="16"/>
-        <v>489.90434927066235</v>
+        <v>501.58493798693604</v>
       </c>
       <c r="Q52" s="57">
         <f t="shared" ca="1" si="16"/>
-        <v>732.87962819692405</v>
+        <v>750.35337695675469</v>
       </c>
       <c r="R52" s="57">
         <f t="shared" ca="1" si="16"/>
-        <v>1024.2973388597911</v>
+        <v>1048.719240719219</v>
       </c>
       <c r="S52" s="57">
         <f t="shared" ca="1" si="16"/>
-        <v>1284.5578967499034</v>
+        <v>1315.1850844785176</v>
       </c>
       <c r="T52" s="57">
         <f t="shared" ca="1" si="16"/>
-        <v>1566.3621885414727</v>
+        <v>1603.7083205615565</v>
       </c>
       <c r="U52" s="57">
         <f t="shared" ca="1" si="16"/>
-        <v>1566.362188541473</v>
+        <v>1603.7083205615565</v>
       </c>
       <c r="V52" s="58">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>1495.1639072441326</v>
+        <v>1530.8124878087581</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -11434,43 +11518,43 @@
       </c>
       <c r="M53" s="6">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.6333333333333333</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="N53" s="6">
         <f ca="1">M53+1</f>
-        <v>1.6333333333333333</v>
+        <v>1.3861111111111111</v>
       </c>
       <c r="O53" s="6">
         <f ca="1">N53+1</f>
-        <v>2.6333333333333333</v>
+        <v>2.3861111111111111</v>
       </c>
       <c r="P53" s="6">
         <f t="shared" ref="P53:V53" ca="1" si="17">O53+1</f>
-        <v>3.6333333333333333</v>
+        <v>3.3861111111111111</v>
       </c>
       <c r="Q53" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.6333333333333329</v>
+        <v>4.3861111111111111</v>
       </c>
       <c r="R53" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>5.6333333333333329</v>
+        <v>5.3861111111111111</v>
       </c>
       <c r="S53" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>6.6333333333333329</v>
+        <v>6.3861111111111111</v>
       </c>
       <c r="T53" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>7.6333333333333329</v>
+        <v>7.3861111111111111</v>
       </c>
       <c r="U53" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>8.6333333333333329</v>
+        <v>8.3861111111111111</v>
       </c>
       <c r="V53" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>9.6333333333333329</v>
+        <v>9.3861111111111111</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -11483,7 +11567,7 @@
       <c r="Q54" s="59"/>
       <c r="V54" s="39">
         <f ca="1">SUM(M52:V52)</f>
-        <v>8778.0418876856511</v>
+        <v>8958.6179845885817</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -11527,7 +11611,7 @@
       <c r="U56" s="61"/>
       <c r="V56" s="62">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>20083.004105829652</v>
+        <v>20561.834945965413</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -11555,7 +11639,7 @@
       <c r="U57" s="64"/>
       <c r="V57" s="65">
         <f ca="1">V54+V56</f>
-        <v>28861.045993515305</v>
+        <v>29520.452930553995</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
@@ -11568,7 +11652,7 @@
       <c r="Q58" s="59"/>
       <c r="V58" s="66">
         <f>+Main!H6</f>
-        <v>871.8</v>
+        <v>898.4</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
@@ -11596,7 +11680,7 @@
       <c r="U59" s="61"/>
       <c r="V59" s="62">
         <f>+Main!H7</f>
-        <v>54</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
@@ -11609,7 +11693,7 @@
       <c r="Q60" s="59"/>
       <c r="V60" s="66">
         <f ca="1">V57+V58-V59</f>
-        <v>29678.845993515304</v>
+        <v>30365.352930553996</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -11637,7 +11721,7 @@
       <c r="U61" s="61"/>
       <c r="V61" s="62">
         <f>+Main!H4</f>
-        <v>293.33796000000001</v>
+        <v>293.04771499999998</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
@@ -11646,7 +11730,7 @@
       </c>
       <c r="V62" s="66">
         <f ca="1">V60/V61</f>
-        <v>101.17628824280125</v>
+        <v>103.61914246816085</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -11707,7 +11791,7 @@
       </c>
       <c r="C69" s="68">
         <f ca="1">+J4</f>
-        <v>101.17628824280125</v>
+        <v>103.61914246816085</v>
       </c>
       <c r="D69" s="69"/>
       <c r="E69" s="69"/>
@@ -11721,7 +11805,7 @@
       </c>
       <c r="N69" s="68">
         <f ca="1">+J4</f>
-        <v>101.17628824280125</v>
+        <v>103.61914246816085</v>
       </c>
       <c r="O69" s="69"/>
       <c r="P69" s="69"/>
